--- a/table (version 2).xlsx
+++ b/table (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{8906A4D6-85DA-4D70-B337-2694E2AFAAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{221B3428-42B0-4FCE-9F2B-790D75C26894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13944" tabRatio="660" firstSheet="1" activeTab="4" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13944" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="631">
   <si>
     <t>모델</t>
   </si>
@@ -2668,17 +2668,8 @@
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_080732/log_20251119_080732.log</t>
   </si>
   <si>
-    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.001에서 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_085123</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_085125</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_085129</t>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.002에서 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7083,9 +7074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
   <dimension ref="A1:AB426"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T169" sqref="T169"/>
+      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13455,27 +13446,18 @@
       <c r="A170" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="T170" s="21" t="s">
-        <v>631</v>
-      </c>
       <c r="AB170" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.001에서 시작</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.002에서 시작</v>
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="T171" s="21" t="s">
-        <v>632</v>
-      </c>
       <c r="AB171" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="T172" s="21" t="s">
-        <v>633</v>
-      </c>
       <c r="AB172" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15112,8 +15094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
   <dimension ref="A2:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/table (version 2).xlsx
+++ b/table (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{221B3428-42B0-4FCE-9F2B-790D75C26894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{86D97F84-8D7B-4055-8657-552FB47F8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13944" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="660" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="662">
   <si>
     <t>모델</t>
   </si>
@@ -1775,9 +1775,6 @@
   <si>
     <t>Ours (weight_decay 0.0001, ps56, drop0.1, res_attn)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251118_070356</t>
   </si>
   <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251118_070401</t>
@@ -1980,10 +1977,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251118_120152</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1996,10 +1989,6 @@
   </si>
   <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251118_125100</t>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Final epoch's val loss</t>
@@ -2031,18 +2020,6 @@
       </rPr>
       <t>, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.001, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.01, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.1, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2320,36 +2297,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ours (weight_decay 0.1, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lr0.0001</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251118_145819</t>
   </si>
   <si>
@@ -2658,18 +2605,343 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.001, eta_min 1e-4, )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_080654/log_20251119_080654.log</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_080732/log_20251119_080732.log</t>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.001에서 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.002에서 시작</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.003에서 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_090523</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_090704</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_090715</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_093843</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_093845</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_093846</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_094735</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.001, eta_min 1e-4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay 0.0001, ps112, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, res_attn, lr 0.001, eta_min 1e-4)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_101657</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_101658</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_101700</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_101701</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay 0.0001, ps112, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, res_attn, lr 0.001, eta_min 1e-4)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251118_070356_base3</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_134016_base2</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120247_base1</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251118_070356</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_105657</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_105659</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_105701</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_105703</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_080654</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_080732</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_113448</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_113500</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_113503</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_113507</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ours (weight_decay 0.001, ps112, drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ours (weight_decay 0.01, ps112, drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ours (weight_decay 0.1, ps112, drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay 0.1, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lr0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 24, emb_dim40)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_121744</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_121812</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 24, emb_dim24)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_122001</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2954,7 @@
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2803,6 +3075,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2938,7 +3219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3137,6 +3418,27 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
@@ -3154,6 +3456,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>6610531</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>574222</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>113693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4366758-6238-7BBE-A76A-E246EE1FD17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43086745" y="9043400"/>
+          <a:ext cx="3647986" cy="2917579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>271314</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>72056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>225334</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>3265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D1F560-E741-B26C-C4B6-863A9D477669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43741600" y="16455056"/>
+          <a:ext cx="3300288" cy="2645562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>6887755</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>35017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>495841</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>34994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB13B66D-DF75-935F-59FA-15DCF426FE80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43363969" y="22541231"/>
+          <a:ext cx="3958586" cy="3169897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>339633</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>135697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>148773</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>155471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDAB92C-6A94-1B6B-1965-283226D63C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43809919" y="19920483"/>
+          <a:ext cx="3155408" cy="2515687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>6872334</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>159310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>148772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031EC9F2-F2CC-EB31-4163-AEF268750515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43348548" y="25613739"/>
+          <a:ext cx="3937606" cy="3151762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3857,7 +4384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BF4E89-56A3-4502-BA89-E13C3B2DF54B}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J62" sqref="J62:N64"/>
     </sheetView>
@@ -3946,7 +4473,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>53</v>
@@ -4106,7 +4633,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>53</v>
@@ -4266,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>53</v>
@@ -4426,7 +4953,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>53</v>
@@ -4586,7 +5113,7 @@
         <v>295</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>53</v>
@@ -4668,7 +5195,7 @@
         <v>295</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>53</v>
@@ -4828,7 +5355,7 @@
         <v>277</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>275</v>
@@ -4910,7 +5437,7 @@
         <v>280</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>275</v>
@@ -4992,7 +5519,7 @@
         <v>283</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>275</v>
@@ -5074,7 +5601,7 @@
         <v>286</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>275</v>
@@ -5156,7 +5683,7 @@
         <v>289</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>275</v>
@@ -5238,7 +5765,7 @@
         <v>292</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>275</v>
@@ -5320,7 +5847,7 @@
         <v>295</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>275</v>
@@ -5376,7 +5903,7 @@
         <v>295</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>275</v>
@@ -5432,7 +5959,7 @@
         <v>304</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>53</v>
@@ -5514,7 +6041,7 @@
         <v>298</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>53</v>
@@ -5596,7 +6123,7 @@
         <v>305</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>53</v>
@@ -5756,7 +6283,7 @@
         <v>308</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>53</v>
@@ -5838,7 +6365,7 @@
         <v>305</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>53</v>
@@ -5920,7 +6447,7 @@
         <v>327</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>53</v>
@@ -6002,7 +6529,7 @@
         <v>332</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>275</v>
@@ -6084,7 +6611,7 @@
         <v>339</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>53</v>
@@ -6244,7 +6771,7 @@
         <v>342</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>275</v>
@@ -6327,7 +6854,7 @@
         <v>347</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>275</v>
@@ -6487,7 +7014,7 @@
         <v>348</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>275</v>
@@ -6569,7 +7096,7 @@
         <v>357</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>275</v>
@@ -7072,11 +7599,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
-  <dimension ref="A1:AB426"/>
+  <dimension ref="A1:AB425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7099,7 +7626,7 @@
     <col min="16" max="16" width="18.59765625" style="55" customWidth="1"/>
     <col min="17" max="19" width="18.59765625" style="55" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="8.796875" style="21"/>
-    <col min="27" max="27" width="13.59765625" style="21" customWidth="1"/>
+    <col min="27" max="27" width="7.59765625" style="21" customWidth="1"/>
     <col min="28" max="28" width="91.796875" style="21" customWidth="1"/>
     <col min="29" max="16384" width="8.796875" style="21"/>
   </cols>
@@ -7114,8 +7641,8 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>597</v>
+      <c r="A2" s="72" t="s">
+        <v>590</v>
       </c>
       <c r="AB2" s="21" t="str">
         <f t="shared" si="0"/>
@@ -7157,7 +7684,7 @@
         <v>496</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M3" s="61" t="s">
         <v>495</v>
@@ -7423,7 +7950,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>53</v>
@@ -7653,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>53</v>
@@ -7883,7 +8410,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C19" s="50" t="s">
         <v>53</v>
@@ -8113,7 +8640,7 @@
         <v>305</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>275</v>
@@ -8308,7 +8835,7 @@
         <v>338</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>275</v>
@@ -8503,7 +9030,7 @@
         <v>379</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>275</v>
@@ -8698,7 +9225,7 @@
         <v>420</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>275</v>
@@ -8893,7 +9420,7 @@
         <v>332</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C44" s="46" t="s">
         <v>275</v>
@@ -9083,12 +9610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" s="54" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A49" s="63" t="s">
         <v>421</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C49" s="54" t="s">
         <v>275</v>
@@ -9114,35 +9641,37 @@
       <c r="J49" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="54">
         <v>91.17</v>
       </c>
-      <c r="L49" s="54"/>
-      <c r="M49" s="47">
+      <c r="L49" s="54">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="M49" s="70">
         <v>88.79</v>
       </c>
-      <c r="N49" s="48">
+      <c r="N49" s="71">
         <v>0.87170000000000003</v>
       </c>
-      <c r="O49" s="48">
+      <c r="O49" s="71">
         <v>0.92090000000000005</v>
       </c>
-      <c r="P49" s="48">
+      <c r="P49" s="71">
         <v>0.89559999999999995</v>
       </c>
-      <c r="Q49" s="48">
+      <c r="Q49" s="71">
         <v>0.90790000000000004</v>
       </c>
-      <c r="R49" s="48">
+      <c r="R49" s="71">
         <v>0.85189999999999999</v>
       </c>
-      <c r="S49" s="48">
+      <c r="S49" s="71">
         <v>0.879</v>
       </c>
-      <c r="T49" s="46" t="s">
+      <c r="T49" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="AB49" s="21" t="str">
+      <c r="AB49" s="62" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn)</v>
       </c>
@@ -9284,7 +9813,7 @@
         <v>308</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C54" s="46" t="s">
         <v>275</v>
@@ -9347,7 +9876,7 @@
         <v>376</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>275</v>
@@ -9410,7 +9939,7 @@
         <v>407</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>275</v>
@@ -9473,7 +10002,7 @@
         <v>379</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>275</v>
@@ -9536,7 +10065,7 @@
         <v>410</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>275</v>
@@ -9599,7 +10128,7 @@
         <v>413</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>275</v>
@@ -9662,7 +10191,7 @@
         <v>430</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>275</v>
@@ -9725,7 +10254,7 @@
         <v>434</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>275</v>
@@ -9821,7 +10350,7 @@
         <v>435</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>275</v>
@@ -9917,7 +10446,7 @@
         <v>440</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>275</v>
@@ -9971,7 +10500,7 @@
         <v>441</v>
       </c>
       <c r="AB65" s="21" t="str">
-        <f t="shared" ref="AB65:AB128" si="1">A65</f>
+        <f t="shared" ref="AB65:AB132" si="1">A65</f>
         <v>Ours (weight_decay 0.15, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
@@ -10079,7 +10608,7 @@
         <v>448</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>275</v>
@@ -10208,7 +10737,7 @@
         <v>451</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>275</v>
@@ -10316,7 +10845,7 @@
         <v>456</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>275</v>
@@ -10413,12 +10942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="62" t="s">
         <v>464</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>275</v>
@@ -10444,20 +10973,27 @@
       <c r="J80" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="K80" s="21">
+      <c r="K80" s="20">
         <v>90.94</v>
       </c>
-      <c r="L80" s="20"/>
-      <c r="M80" s="57">
+      <c r="L80" s="20">
+        <v>0.3846</v>
+      </c>
+      <c r="M80" s="66">
         <v>89.09</v>
       </c>
-      <c r="P80" s="55">
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67">
         <v>0.89459999999999995</v>
       </c>
-      <c r="T80" s="21" t="s">
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="AB80" s="21" t="str">
+      <c r="AB80" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
@@ -10521,7 +11057,7 @@
         <v>474</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>275</v>
@@ -10569,7 +11105,7 @@
         <v>476</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>275</v>
@@ -10617,7 +11153,7 @@
         <v>475</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>275</v>
@@ -10665,7 +11201,7 @@
         <v>475</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>275</v>
@@ -10713,7 +11249,7 @@
         <v>475</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>275</v>
@@ -10761,7 +11297,7 @@
         <v>463</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>275</v>
@@ -10863,7 +11399,7 @@
         <v>489</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>275</v>
@@ -10929,7 +11465,7 @@
         <v>484</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>275</v>
@@ -10977,7 +11513,7 @@
         <v>488</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>275</v>
@@ -11020,50 +11556,58 @@
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min0.0005)</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="62" t="s">
         <v>497</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C97" s="21" t="s">
+      <c r="B97" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="20">
         <v>256</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="20">
         <v>90</v>
       </c>
-      <c r="G97" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="21" t="s">
+      <c r="G97" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="I97" s="21" t="s">
+      <c r="I97" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J97" s="21" t="s">
+      <c r="J97" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="K97" s="21">
+      <c r="K97" s="20">
         <v>93.91</v>
       </c>
-      <c r="M97" s="57">
+      <c r="L97" s="20">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="M97" s="66">
         <v>85.55</v>
       </c>
-      <c r="P97" s="55">
+      <c r="N97" s="67"/>
+      <c r="O97" s="67"/>
+      <c r="P97" s="67">
         <v>0.86580000000000001</v>
       </c>
-      <c r="T97" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB97" s="21" t="str">
+      <c r="Q97" s="67"/>
+      <c r="R97" s="67"/>
+      <c r="S97" s="67"/>
+      <c r="T97" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB97" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps56, drop0.1, res_attn)</v>
       </c>
@@ -11079,7 +11623,7 @@
         <v>0.86609999999999998</v>
       </c>
       <c r="T98" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB98" s="21">
         <f t="shared" si="1"/>
@@ -11097,7 +11641,7 @@
         <v>0.87219999999999998</v>
       </c>
       <c r="T99" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AB99" s="21">
         <f t="shared" si="1"/>
@@ -11115,7 +11659,7 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="T100" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB100" s="21">
         <f t="shared" si="1"/>
@@ -11124,10 +11668,10 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A101" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>275</v>
@@ -11163,7 +11707,7 @@
         <v>0.86739999999999995</v>
       </c>
       <c r="T101" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AB101" s="21" t="str">
         <f t="shared" si="1"/>
@@ -11181,7 +11725,7 @@
         <v>0.86980000000000002</v>
       </c>
       <c r="T102" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AB102" s="21">
         <f t="shared" si="1"/>
@@ -11199,7 +11743,7 @@
         <v>0.86809999999999998</v>
       </c>
       <c r="T103" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AB103" s="21">
         <f t="shared" si="1"/>
@@ -11214,67 +11758,75 @@
         <v>0.85960000000000003</v>
       </c>
       <c r="T104" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AB104" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="62" t="s">
-        <v>514</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C105" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C105" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D105" s="21">
+      <c r="D105" s="20">
         <v>256</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="E105" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F105" s="21">
+      <c r="F105" s="20">
         <v>90</v>
       </c>
-      <c r="G105" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" s="21" t="s">
+      <c r="G105" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J105" s="21" t="s">
+      <c r="J105" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="K105" s="21">
+      <c r="K105" s="20">
         <v>90.86</v>
       </c>
-      <c r="M105" s="57">
+      <c r="L105" s="20">
+        <v>0.3886</v>
+      </c>
+      <c r="M105" s="66">
         <v>86.73</v>
       </c>
-      <c r="P105" s="55">
+      <c r="N105" s="67"/>
+      <c r="O105" s="67"/>
+      <c r="P105" s="67">
         <v>0.87109999999999999</v>
       </c>
-      <c r="T105" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB105" s="21" t="str">
+      <c r="Q105" s="67"/>
+      <c r="R105" s="67"/>
+      <c r="S105" s="67"/>
+      <c r="T105" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB105" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56)</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A106" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>275</v>
@@ -11300,8 +11852,8 @@
       <c r="J106" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="T106" s="21" t="s">
-        <v>517</v>
+      <c r="L106" s="21" t="s">
+        <v>516</v>
       </c>
       <c r="AB106" s="21" t="str">
         <f t="shared" si="1"/>
@@ -11310,10 +11862,10 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A107" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>275</v>
@@ -11346,10 +11898,10 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A108" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>275</v>
@@ -11385,7 +11937,7 @@
         <v>0.86670000000000003</v>
       </c>
       <c r="T108" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AB108" s="21" t="str">
         <f t="shared" si="1"/>
@@ -11394,10 +11946,10 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A109" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>275</v>
@@ -11433,1285 +11985,1220 @@
         <v>0.87229999999999996</v>
       </c>
       <c r="T109" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AB109" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A110" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C110" s="21" t="s">
+    <row r="110" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="62" t="s">
+        <v>519</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C110" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="20">
         <v>256</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E110" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F110" s="21">
+      <c r="F110" s="20">
         <v>90</v>
       </c>
-      <c r="G110" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" s="21" t="s">
+      <c r="G110" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="I110" s="21" t="s">
+      <c r="I110" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J110" s="21" t="s">
+      <c r="J110" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="K110" s="21">
+      <c r="K110" s="20">
         <v>99.06</v>
       </c>
-      <c r="L110" s="21">
+      <c r="L110" s="20">
         <v>0.64680000000000004</v>
       </c>
-      <c r="M110" s="57">
+      <c r="M110" s="66">
         <v>87.91</v>
       </c>
-      <c r="P110" s="55">
+      <c r="N110" s="67"/>
+      <c r="O110" s="67"/>
+      <c r="P110" s="67">
         <v>0.88319999999999999</v>
       </c>
-      <c r="T110" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB110" s="21" t="str">
+      <c r="Q110" s="67"/>
+      <c r="R110" s="67"/>
+      <c r="S110" s="67"/>
+      <c r="T110" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB110" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A111" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C111" s="21" t="s">
+      <c r="K111" s="20">
+        <v>99.38</v>
+      </c>
+      <c r="L111" s="20">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="M111" s="66">
+        <v>86.43</v>
+      </c>
+      <c r="N111" s="67"/>
+      <c r="O111" s="67"/>
+      <c r="P111" s="67">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="T111" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB111" s="21">
+        <f>A111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K112" s="20">
+        <v>99.06</v>
+      </c>
+      <c r="L112" s="20">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="M112" s="66">
+        <v>87.32</v>
+      </c>
+      <c r="N112" s="67"/>
+      <c r="O112" s="67"/>
+      <c r="P112" s="67">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="T112" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB112" s="21">
+        <f>A112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K113" s="20">
+        <v>99.38</v>
+      </c>
+      <c r="L113" s="20">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="M113" s="66">
+        <v>87.02</v>
+      </c>
+      <c r="N113" s="67"/>
+      <c r="O113" s="67"/>
+      <c r="P113" s="67">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="T113" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB113" s="21">
+        <f>A113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K114" s="20">
+        <v>99.45</v>
+      </c>
+      <c r="L114" s="20">
+        <v>0.7419</v>
+      </c>
+      <c r="M114" s="66">
+        <v>86.43</v>
+      </c>
+      <c r="N114" s="67"/>
+      <c r="O114" s="67"/>
+      <c r="P114" s="67">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="T114" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB114" s="21">
+        <f>A114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A115" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D111" s="21">
+      <c r="D115" s="21">
         <v>256</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E115" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F111" s="21">
+      <c r="F115" s="21">
         <v>90</v>
       </c>
-      <c r="G111" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" s="21" t="s">
+      <c r="G115" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I111" s="21" t="s">
+      <c r="I115" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J111" s="21" t="s">
+      <c r="J115" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K111" s="21">
+      <c r="K115" s="21">
         <v>99.38</v>
       </c>
-      <c r="L111" s="21">
+      <c r="L115" s="21">
         <v>0.64049999999999996</v>
       </c>
-      <c r="M111" s="57">
+      <c r="M115" s="57">
         <v>86.14</v>
       </c>
-      <c r="P111" s="55">
+      <c r="P115" s="55">
         <v>0.874</v>
       </c>
-      <c r="T111" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB111" s="21" t="str">
+      <c r="T115" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB115" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A112" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C112" s="21" t="s">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A116" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C116" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D112" s="21">
+      <c r="D116" s="21">
         <v>256</v>
       </c>
-      <c r="E112" s="21" t="s">
+      <c r="E116" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F112" s="21">
+      <c r="F116" s="21">
         <v>90</v>
       </c>
-      <c r="G112" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" s="21" t="s">
+      <c r="G116" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I112" s="21" t="s">
+      <c r="I116" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J112" s="21" t="s">
+      <c r="J116" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K112" s="21">
+      <c r="K116" s="21">
         <v>99.3</v>
       </c>
-      <c r="L112" s="21">
+      <c r="L116" s="21">
         <v>0.62070000000000003</v>
       </c>
-      <c r="M112" s="57">
+      <c r="M116" s="57">
         <v>86.43</v>
       </c>
-      <c r="P112" s="55">
+      <c r="P116" s="55">
         <v>0.87080000000000002</v>
       </c>
-      <c r="T112" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="AB112" s="21" t="str">
+      <c r="T116" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB116" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A113" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C113" s="21" t="s">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A117" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C117" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D117" s="21">
         <v>256</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E117" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F117" s="21">
         <v>90</v>
       </c>
-      <c r="G113" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" s="21" t="s">
+      <c r="G117" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I113" s="21" t="s">
+      <c r="I117" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J113" s="21" t="s">
+      <c r="J117" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K113" s="21">
+      <c r="K117" s="21">
         <v>99.45</v>
       </c>
-      <c r="L113" s="21">
+      <c r="L117" s="21">
         <v>0.75939999999999996</v>
       </c>
-      <c r="M113" s="57">
+      <c r="M117" s="57">
         <v>87.02</v>
       </c>
-      <c r="P113" s="55">
+      <c r="P117" s="55">
         <v>0.87570000000000003</v>
       </c>
-      <c r="T113" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB113" s="21" t="str">
+      <c r="T117" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB117" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A114" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C114" s="21" t="s">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A118" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C118" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D114" s="21">
+      <c r="D118" s="21">
         <v>256</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="E118" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F114" s="21">
+      <c r="F118" s="21">
         <v>90</v>
       </c>
-      <c r="G114" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114" s="21" t="s">
+      <c r="G118" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I114" s="21" t="s">
+      <c r="I118" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J114" s="21" t="s">
+      <c r="J118" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K114" s="21">
+      <c r="K118" s="21">
         <v>99.53</v>
       </c>
-      <c r="L114" s="21">
+      <c r="L118" s="21">
         <v>0.72660000000000002</v>
       </c>
-      <c r="M114" s="57">
+      <c r="M118" s="57">
         <v>84.37</v>
       </c>
-      <c r="P114" s="55">
+      <c r="P118" s="55">
         <v>0.8579</v>
       </c>
-      <c r="T114" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="AB114" s="21" t="str">
+      <c r="T118" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB118" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A115" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C115" s="21" t="s">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A119" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C119" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D119" s="21">
         <v>256</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="E119" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F115" s="21">
+      <c r="F119" s="21">
         <v>90</v>
       </c>
-      <c r="G115" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" s="21" t="s">
+      <c r="G119" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I115" s="21" t="s">
+      <c r="I119" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J115" s="21" t="s">
+      <c r="J119" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K115" s="21">
+      <c r="K119" s="21">
         <v>99.38</v>
       </c>
-      <c r="L115" s="21">
+      <c r="L119" s="21">
         <v>0.75480000000000003</v>
       </c>
-      <c r="M115" s="57">
+      <c r="M119" s="57">
         <v>86.14</v>
       </c>
-      <c r="P115" s="55">
+      <c r="P119" s="55">
         <v>0.87190000000000001</v>
       </c>
-      <c r="T115" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="AB115" s="21" t="str">
+      <c r="T119" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB119" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A116" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C116" s="21" t="s">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A120" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C120" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D120" s="21">
         <v>256</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E120" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F116" s="21">
+      <c r="F120" s="21">
         <v>90</v>
       </c>
-      <c r="G116" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" s="21" t="s">
+      <c r="G120" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I116" s="21" t="s">
+      <c r="I120" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J116" s="21" t="s">
+      <c r="J120" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K116" s="21">
+      <c r="K120" s="21">
         <v>99.53</v>
       </c>
-      <c r="L116" s="21">
+      <c r="L120" s="21">
         <v>0.80320000000000003</v>
       </c>
-      <c r="M116" s="57">
+      <c r="M120" s="57">
         <v>86.14</v>
       </c>
-      <c r="P116" s="55">
+      <c r="P120" s="55">
         <v>0.87119999999999997</v>
       </c>
-      <c r="T116" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="AB116" s="21" t="str">
+      <c r="T120" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="AB120" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A117" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C117" s="21" t="s">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A121" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C121" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D117" s="21">
+      <c r="D121" s="21">
         <v>256</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E121" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F117" s="21">
+      <c r="F121" s="21">
         <v>91</v>
       </c>
-      <c r="G117" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" s="21" t="s">
+      <c r="G121" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I117" s="21" t="s">
+      <c r="I121" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J117" s="21" t="s">
+      <c r="J121" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="L117" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="T117" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB117" s="21" t="str">
+      <c r="L121" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="T121" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB121" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A118" s="21" t="s">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A122" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" s="21">
+        <v>256</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F122" s="21">
+        <v>92</v>
+      </c>
+      <c r="G122" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I122" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J122" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="L122" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="B118" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D118" s="21">
-        <v>256</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F118" s="21">
-        <v>92</v>
-      </c>
-      <c r="G118" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I118" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J118" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="L118" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="T118" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB118" s="21" t="str">
+      <c r="T122" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="AB122" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A119" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="C119" s="21" t="s">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A123" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C123" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D119" s="21">
+      <c r="D123" s="21">
         <v>256</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E123" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F119" s="21">
+      <c r="F123" s="21">
         <v>94</v>
       </c>
-      <c r="G119" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" s="21" t="s">
+      <c r="G123" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I119" s="21" t="s">
+      <c r="I123" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J119" s="21" t="s">
+      <c r="J123" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="L119" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="T119" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="AB119" s="21" t="str">
+      <c r="L123" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="T123" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB123" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, ps150, stride75, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A120" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C120" s="21" t="s">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A124" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C124" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D124" s="21">
         <v>256</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E124" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F120" s="21">
+      <c r="F124" s="21">
         <v>95</v>
       </c>
-      <c r="G120" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" s="21" t="s">
+      <c r="G124" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="I120" s="21" t="s">
+      <c r="I124" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="J120" s="21" t="s">
+      <c r="J124" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="T120" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="AB120" s="21" t="str">
+      <c r="T124" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB124" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A121" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C121" s="21" t="s">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A125" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C125" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D121" s="21">
+      <c r="D125" s="21">
         <v>256</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E125" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F121" s="21">
+      <c r="F125" s="21">
         <v>95</v>
       </c>
-      <c r="G121" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" s="21" t="s">
+      <c r="G125" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="I121" s="21" t="s">
+      <c r="I125" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="J121" s="21" t="s">
+      <c r="J125" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="T121" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="AB121" s="21" t="str">
+      <c r="T125" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB125" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A122" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C122" s="21" t="s">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A126" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D122" s="21">
+      <c r="D126" s="21">
         <v>256</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E126" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F122" s="21">
+      <c r="F126" s="21">
         <v>92</v>
       </c>
-      <c r="G122" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" s="21" t="s">
+      <c r="G126" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I122" s="21" t="s">
+      <c r="I126" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J122" s="21" t="s">
+      <c r="J126" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K122" s="21">
+      <c r="K126" s="21">
         <v>90.55</v>
       </c>
-      <c r="L122" s="21">
+      <c r="L126" s="21">
         <v>0.39560000000000001</v>
       </c>
-      <c r="M122" s="57">
+      <c r="M126" s="57">
         <v>84.66</v>
       </c>
-      <c r="P122" s="55">
+      <c r="P126" s="55">
         <v>0.85060000000000002</v>
       </c>
-      <c r="T122" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="AB122" s="21" t="str">
+      <c r="T126" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB126" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A123" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C123" s="21" t="s">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A127" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C127" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D123" s="21">
+      <c r="D127" s="21">
         <v>256</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E127" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F123" s="21">
+      <c r="F127" s="21">
         <v>92</v>
       </c>
-      <c r="G123" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" s="21" t="s">
+      <c r="G127" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I123" s="21" t="s">
+      <c r="I127" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J123" s="21" t="s">
+      <c r="J127" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K123" s="21">
+      <c r="K127" s="21">
         <v>90.31</v>
       </c>
-      <c r="L123" s="21">
+      <c r="L127" s="21">
         <v>0.39560000000000001</v>
       </c>
-      <c r="M123" s="57">
+      <c r="M127" s="57">
         <v>84.96</v>
       </c>
-      <c r="P123" s="55">
+      <c r="P127" s="55">
         <v>0.85299999999999998</v>
       </c>
-      <c r="T123" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="AB123" s="21" t="str">
+      <c r="T127" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB127" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A124" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C124" s="21" t="s">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A128" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D124" s="21">
+      <c r="D128" s="21">
         <v>256</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="E128" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F124" s="21">
+      <c r="F128" s="21">
         <v>92</v>
       </c>
-      <c r="G124" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" s="21" t="s">
+      <c r="G128" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I124" s="21" t="s">
+      <c r="I128" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J124" s="21" t="s">
+      <c r="J128" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K124" s="21">
+      <c r="K128" s="21">
         <v>99.22</v>
       </c>
-      <c r="L124" s="21">
+      <c r="L128" s="21">
         <v>0.65159999999999996</v>
       </c>
-      <c r="M124" s="57">
+      <c r="M128" s="57">
         <v>85.25</v>
       </c>
-      <c r="P124" s="55">
+      <c r="P128" s="55">
         <v>0.85960000000000003</v>
       </c>
-      <c r="T124" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="AB124" s="21" t="str">
+      <c r="T128" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB128" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0005)</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A125" s="21" t="s">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A129" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" s="21">
+        <v>256</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F129" s="21">
+        <v>92</v>
+      </c>
+      <c r="G129" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I129" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J129" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="L129" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="B125" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D125" s="21">
-        <v>256</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F125" s="21">
-        <v>92</v>
-      </c>
-      <c r="G125" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I125" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J125" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="L125" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="T125" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="AB125" s="21" t="str">
+      <c r="T129" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB129" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.4, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A126" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C126" s="21" t="s">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A130" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C130" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D126" s="21">
+      <c r="D130" s="21">
         <v>256</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E130" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F126" s="21">
+      <c r="F130" s="21">
         <v>92</v>
       </c>
-      <c r="G126" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" s="21" t="s">
+      <c r="G130" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I130" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J126" s="21" t="s">
+      <c r="J130" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="L126" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="T126" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="AB126" s="21" t="str">
+      <c r="L130" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="T130" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB130" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.4, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A127" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C127" s="21" t="s">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A131" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C131" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D127" s="21">
+      <c r="D131" s="21">
         <v>256</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E131" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F127" s="21">
+      <c r="F131" s="21">
         <v>92</v>
       </c>
-      <c r="G127" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" s="21" t="s">
+      <c r="G131" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I127" s="21" t="s">
+      <c r="I131" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J127" s="21" t="s">
+      <c r="J131" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="L127" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="T127" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB127" s="21" t="str">
+      <c r="L131" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="T131" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB131" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.4, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A128" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C128" s="21" t="s">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A132" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C132" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D128" s="21">
+      <c r="D132" s="21">
         <v>256</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E132" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F128" s="21">
+      <c r="F132" s="21">
         <v>92</v>
       </c>
-      <c r="G128" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" s="21" t="s">
+      <c r="G132" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I128" s="21" t="s">
+      <c r="I132" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="J128" s="21" t="s">
+      <c r="J132" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K128" s="21">
+      <c r="K132" s="21">
         <v>87.58</v>
       </c>
-      <c r="L128" s="21">
+      <c r="L132" s="21">
         <v>0.39050000000000001</v>
       </c>
-      <c r="M128" s="57">
+      <c r="M132" s="57">
         <v>84.66</v>
       </c>
-      <c r="P128" s="55">
+      <c r="P132" s="55">
         <v>0.85060000000000002</v>
       </c>
-      <c r="T128" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="AB128" s="21" t="str">
+      <c r="T132" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB132" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A129" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C129" s="21" t="s">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A133" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C133" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D129" s="21">
+      <c r="D133" s="21">
         <v>256</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E133" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F129" s="21">
+      <c r="F133" s="21">
         <v>92</v>
       </c>
-      <c r="G129" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" s="21" t="s">
+      <c r="G133" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I129" s="21" t="s">
+      <c r="I133" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="J129" s="21" t="s">
+      <c r="J133" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K129" s="21">
+      <c r="K133" s="21">
         <v>86.88</v>
       </c>
-      <c r="L129" s="21">
+      <c r="L133" s="21">
         <v>0.3987</v>
       </c>
-      <c r="M129" s="57">
+      <c r="M133" s="57">
         <v>85.25</v>
       </c>
-      <c r="P129" s="55">
+      <c r="P133" s="55">
         <v>0.85029999999999994</v>
       </c>
-      <c r="T129" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="AB129" s="21" t="str">
-        <f t="shared" ref="AB129:AB145" si="2">A129</f>
+      <c r="T133" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB133" s="21" t="str">
+        <f t="shared" ref="AB133:AB149" si="2">A133</f>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, stride112, eff_feat3, featured_patch_dim 40, emb_dim24, lr0.0001)</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A130" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="B130" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C130" s="21" t="s">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A134" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C134" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D130" s="21">
+      <c r="D134" s="21">
         <v>256</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="E134" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F130" s="21">
+      <c r="F134" s="21">
         <v>92</v>
       </c>
-      <c r="G130" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" s="21" t="s">
+      <c r="G134" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I130" s="21" t="s">
+      <c r="I134" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="J130" s="21" t="s">
+      <c r="J134" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K130" s="21">
+      <c r="K134" s="21">
         <v>85.47</v>
       </c>
-      <c r="L130" s="21">
+      <c r="L134" s="21">
         <v>0.39400000000000002</v>
       </c>
-      <c r="M130" s="57">
+      <c r="M134" s="57">
         <v>86.14</v>
       </c>
-      <c r="P130" s="55">
+      <c r="P134" s="55">
         <v>0.86460000000000004</v>
       </c>
-      <c r="T130" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="AB130" s="21" t="str">
+      <c r="T134" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB134" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, stride112, eff_feat3, featured_patch_dim 40, emb_dim24, lr0.0001, decoderlayes1)</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A131" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C131" s="21" t="s">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A135" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D131" s="21">
+      <c r="D135" s="21">
         <v>256</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E135" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F131" s="21">
+      <c r="F135" s="21">
         <v>90</v>
       </c>
-      <c r="G131" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" s="21" t="s">
+      <c r="G135" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I131" s="21" t="s">
+      <c r="I135" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J131" s="21" t="s">
+      <c r="J135" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K131" s="21">
+      <c r="K135" s="21">
         <v>90.78</v>
       </c>
-      <c r="L131" s="21">
+      <c r="L135" s="21">
         <v>0.37590000000000001</v>
       </c>
-      <c r="M131" s="57">
+      <c r="M135" s="57">
         <v>88.2</v>
       </c>
-      <c r="P131" s="55">
+      <c r="P135" s="55">
         <v>0.8851</v>
       </c>
-      <c r="T131" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="AB131" s="21" t="str">
+      <c r="T135" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB135" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112)</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A132" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C132" s="21" t="s">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A136" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C136" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D132" s="21">
+      <c r="D136" s="21">
         <v>256</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E136" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F132" s="21">
+      <c r="F136" s="21">
         <v>90</v>
       </c>
-      <c r="G132" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" s="21" t="s">
+      <c r="G136" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I132" s="21" t="s">
+      <c r="I136" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J132" s="21" t="s">
+      <c r="J136" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K132" s="21">
+      <c r="K136" s="21">
         <v>92.58</v>
       </c>
-      <c r="L132" s="21">
+      <c r="L136" s="21">
         <v>0.42659999999999998</v>
       </c>
-      <c r="M132" s="57">
+      <c r="M136" s="57">
         <v>87.61</v>
       </c>
-      <c r="P132" s="55">
+      <c r="P136" s="55">
         <v>0.88400000000000001</v>
       </c>
-      <c r="T132" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="AB132" s="21" t="str">
+      <c r="T136" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB136" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, scheduler none, lr 0.001)</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A133" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="AB133" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>시작하자마자 20 에포크 이전에 이미 val loss가 최소치로 내려가고, 그 이후로 정체됨</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A134" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D134" s="21">
-        <v>256</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F134" s="21">
-        <v>90</v>
-      </c>
-      <c r="G134" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I134" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J134" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="K134" s="21">
-        <v>90.47</v>
-      </c>
-      <c r="L134" s="21">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="M134" s="57">
-        <v>88.5</v>
-      </c>
-      <c r="P134" s="55">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="T134" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="AB134" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax20)</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A135" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D135" s="21">
-        <v>256</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F135" s="21">
-        <v>90</v>
-      </c>
-      <c r="G135" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I135" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J135" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="K135" s="21">
-        <v>86.88</v>
-      </c>
-      <c r="L135" s="21">
-        <v>0.36930000000000002</v>
-      </c>
-      <c r="M135" s="57">
-        <v>85.84</v>
-      </c>
-      <c r="P135" s="55">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="T135" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB135" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, scheduler none, lr 0.0001)</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A136" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="AB136" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>90에포크까지 천천히 지속적으로 val loss가 감소함</v>
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A137" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="B137" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D137" s="21">
-        <v>256</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F137" s="21">
-        <v>90</v>
-      </c>
-      <c r="G137" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I137" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J137" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="K137" s="21">
-        <v>92.66</v>
-      </c>
-      <c r="L137" s="21">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="M137" s="57">
-        <v>88.2</v>
-      </c>
-      <c r="P137" s="55">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="T137" s="21" t="s">
-        <v>577</v>
-      </c>
       <c r="AB137" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30)</v>
+        <v>시작하자마자 20 에포크 이전에 이미 val loss가 최소치로 내려가고, 그 이후로 정체됨</v>
       </c>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A138" s="21" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>275</v>
@@ -12738,942 +13225,1476 @@
         <v>365</v>
       </c>
       <c r="K138" s="21">
-        <v>92.97</v>
+        <v>90.47</v>
       </c>
       <c r="L138" s="21">
-        <v>0.36909999999999998</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="M138" s="57">
         <v>88.5</v>
       </c>
       <c r="P138" s="55">
-        <v>0.88500000000000001</v>
+        <v>0.89080000000000004</v>
       </c>
       <c r="T138" s="21" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="AB138" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30, decoderpatch2)</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax20)</v>
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A139" s="21" t="s">
-        <v>580</v>
+        <v>565</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D139" s="21">
+        <v>256</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F139" s="21">
+        <v>90</v>
+      </c>
+      <c r="G139" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I139" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J139" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="K139" s="21">
-        <v>83.67</v>
+        <v>86.88</v>
       </c>
       <c r="L139" s="21">
-        <v>0.4042</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="M139" s="57">
         <v>85.84</v>
       </c>
       <c r="P139" s="55">
-        <v>0.85960000000000003</v>
+        <v>0.86439999999999995</v>
       </c>
       <c r="T139" s="21" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="AB139" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30, lr 0.0001)</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, scheduler none, lr 0.0001)</v>
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A140" s="21" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="AB140" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>val loss가 감소하긴 하는데 너무 큼. 코싸인 어닝하더라도 시작 lr 이 0.0001은 너무 작다.</v>
+        <v>90에포크까지 천천히 지속적으로 val loss가 감소함</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A141" s="21" t="s">
-        <v>575</v>
+        <v>569</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D141" s="21">
+        <v>256</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F141" s="21">
+        <v>90</v>
+      </c>
+      <c r="G141" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I141" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J141" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="K141" s="21">
-        <v>92.81</v>
+        <v>92.66</v>
       </c>
       <c r="L141" s="21">
-        <v>0.39279999999999998</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="M141" s="57">
-        <v>86.43</v>
+        <v>88.2</v>
       </c>
       <c r="P141" s="55">
-        <v>0.87150000000000005</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="T141" s="21" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="AB141" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps56, drop0.1, res_attn, stride28)</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30)</v>
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A142" s="20" t="s">
-        <v>509</v>
+      <c r="A142" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" s="21">
+        <v>256</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142" s="21">
+        <v>90</v>
+      </c>
+      <c r="G142" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I142" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J142" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="K142" s="21">
-        <v>90.62</v>
+        <v>92.97</v>
       </c>
       <c r="L142" s="21">
-        <v>0.36030000000000001</v>
+        <v>0.36909999999999998</v>
       </c>
       <c r="M142" s="57">
         <v>88.5</v>
       </c>
       <c r="P142" s="55">
-        <v>0.89080000000000004</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="T142" s="21" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="AB142" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56)</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30, decoderpatch2)</v>
       </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A143" s="21" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="K143" s="21">
-        <v>83.52</v>
+        <v>83.67</v>
       </c>
       <c r="L143" s="21">
-        <v>0.42659999999999998</v>
+        <v>0.4042</v>
       </c>
       <c r="M143" s="57">
-        <v>83.19</v>
+        <v>85.84</v>
       </c>
       <c r="P143" s="55">
-        <v>0.8357</v>
+        <v>0.85960000000000003</v>
       </c>
       <c r="T143" s="21" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="AB143" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, mobilev4_feat1, fpd32, embdim32)</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30, lr 0.0001)</v>
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A144" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="K144" s="21">
-        <v>94.14</v>
-      </c>
-      <c r="L144" s="21">
-        <v>0.42009999999999997</v>
-      </c>
-      <c r="M144" s="57">
-        <v>83.48</v>
-      </c>
-      <c r="P144" s="55">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="T144" s="21" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="AB144" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, mobilev3_feat3)</v>
+        <v>val loss가 감소하긴 하는데 너무 큼. 코싸인 어닝하더라도 시작 lr 이 0.0001은 너무 작다.</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A145" s="21" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="K145" s="21">
-        <v>99.45</v>
+        <v>92.81</v>
       </c>
       <c r="L145" s="21">
-        <v>0.75929999999999997</v>
+        <v>0.39279999999999998</v>
       </c>
       <c r="M145" s="57">
-        <v>86.73</v>
+        <v>86.43</v>
       </c>
       <c r="P145" s="55">
-        <v>0.86319999999999997</v>
+        <v>0.87150000000000005</v>
       </c>
       <c r="T145" s="21" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="AB145" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
+        <v>Ours (weight_decay 0.0001, ps56, drop0.1, res_attn, stride28)</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A146" s="21" t="s">
-        <v>593</v>
+      <c r="A146" s="20" t="s">
+        <v>508</v>
       </c>
       <c r="K146" s="21">
-        <v>97.58</v>
+        <v>90.62</v>
       </c>
       <c r="L146" s="21">
-        <v>0.73250000000000004</v>
+        <v>0.36030000000000001</v>
       </c>
       <c r="M146" s="57">
-        <v>84.07</v>
+        <v>88.5</v>
       </c>
       <c r="P146" s="55">
-        <v>0.84299999999999997</v>
+        <v>0.89080000000000004</v>
       </c>
       <c r="T146" s="21" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="AB146" s="21" t="str">
-        <f>A146</f>
-        <v>Ours (weight_decay 0.001, ps112, drop0.5, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24,)</v>
+        <f t="shared" si="2"/>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56)</v>
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A147" s="21" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="K147" s="21">
-        <v>99.38</v>
+        <v>83.52</v>
       </c>
       <c r="L147" s="21">
-        <v>0.86970000000000003</v>
+        <v>0.42659999999999998</v>
       </c>
       <c r="M147" s="57">
-        <v>84.96</v>
+        <v>83.19</v>
       </c>
       <c r="P147" s="55">
-        <v>0.85040000000000004</v>
+        <v>0.8357</v>
       </c>
       <c r="T147" s="21" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="AB147" s="21" t="str">
-        <f t="shared" ref="AB147:AB210" si="3">A147</f>
-        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, head4)</v>
+        <f t="shared" si="2"/>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, mobilev4_feat1, fpd32, embdim32)</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A148" s="21" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="K148" s="21">
+        <v>94.14</v>
+      </c>
+      <c r="L148" s="21">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="M148" s="57">
+        <v>83.48</v>
+      </c>
+      <c r="P148" s="55">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="T148" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB148" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, mobilev3_feat3)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A149" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="K149" s="21">
+        <v>99.45</v>
+      </c>
+      <c r="L149" s="21">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="M149" s="57">
+        <v>86.73</v>
+      </c>
+      <c r="P149" s="55">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="T149" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB149" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A150" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="K150" s="21">
+        <v>97.58</v>
+      </c>
+      <c r="L150" s="21">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="M150" s="57">
+        <v>84.07</v>
+      </c>
+      <c r="P150" s="55">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="T150" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB150" s="21" t="str">
+        <f>A150</f>
+        <v>Ours (weight_decay 0.001, ps112, drop0.5, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24,)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A151" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="K151" s="21">
+        <v>99.38</v>
+      </c>
+      <c r="L151" s="21">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="M151" s="57">
+        <v>84.96</v>
+      </c>
+      <c r="P151" s="55">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="T151" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB151" s="21" t="str">
+        <f t="shared" ref="AB151:AB209" si="3">A151</f>
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, head4)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A152" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="K152" s="21">
         <v>99.22</v>
       </c>
-      <c r="L148" s="21">
+      <c r="L152" s="21">
         <v>0.68269999999999997</v>
       </c>
-      <c r="M148" s="57">
+      <c r="M152" s="57">
         <v>85.25</v>
       </c>
-      <c r="P148" s="55">
+      <c r="P152" s="55">
         <v>0.85629999999999995</v>
       </c>
-      <c r="T148" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB148" s="21" t="str">
+      <c r="T152" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB152" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, head4, ffratio 1)</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A149" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="L149" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="T149" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="AB149" s="21" t="str">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A153" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="L153" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="T153" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB153" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, ffratio1)</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A150" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="L150" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="T150" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB150" s="21" t="str">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A154" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="L154" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="T154" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB154" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.5, res_attn, stride112, ffratio1)</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A151" s="65" t="s">
-        <v>604</v>
-      </c>
-      <c r="K151" s="21">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A155" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20">
         <v>92.89</v>
       </c>
-      <c r="L151" s="21">
+      <c r="L155" s="20">
         <v>0.37890000000000001</v>
       </c>
-      <c r="M151" s="57">
+      <c r="M155" s="66">
         <v>88.2</v>
       </c>
-      <c r="P151" s="55">
+      <c r="N155" s="67"/>
+      <c r="O155" s="67"/>
+      <c r="P155" s="67">
         <v>0.88639999999999997</v>
       </c>
-      <c r="T151" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="AB151" s="21" t="str">
+      <c r="T155" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB155" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.0, res_attn)</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="K152" s="21">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K156" s="21">
         <v>92.89</v>
       </c>
-      <c r="L152" s="21">
+      <c r="L156" s="21">
         <v>0.38200000000000001</v>
       </c>
-      <c r="M152" s="57">
+      <c r="M156" s="57">
         <v>87.61</v>
       </c>
-      <c r="P152" s="55">
+      <c r="P156" s="55">
         <v>0.88</v>
       </c>
-      <c r="T152" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB152" s="21">
+      <c r="T156" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB156" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="K153" s="21">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K157" s="21">
         <v>93.2</v>
       </c>
-      <c r="L153" s="21">
+      <c r="L157" s="21">
         <v>0.38229999999999997</v>
       </c>
-      <c r="M153" s="57">
+      <c r="M157" s="57">
         <v>88.2</v>
       </c>
-      <c r="P153" s="55">
+      <c r="P157" s="55">
         <v>0.8851</v>
       </c>
-      <c r="T153" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="AB153" s="21">
+      <c r="T157" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB157" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A154" s="65" t="s">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A158" s="65" t="s">
         <v>464</v>
       </c>
-      <c r="E154" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="K154" s="21">
+      <c r="E158" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="K158" s="21">
         <v>90.55</v>
       </c>
-      <c r="L154" s="21">
+      <c r="L158" s="21">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="M154" s="57">
+      <c r="M158" s="57">
         <v>86.43</v>
       </c>
-      <c r="P154" s="55">
+      <c r="P158" s="55">
         <v>0.87080000000000002</v>
       </c>
-      <c r="T154" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB154" s="21" t="str">
+      <c r="T158" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB158" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="K155" s="21">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K159" s="21">
         <v>90.55</v>
       </c>
-      <c r="L155" s="21">
+      <c r="L159" s="21">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="M155" s="57">
+      <c r="M159" s="57">
         <v>86.43</v>
       </c>
-      <c r="P155" s="55">
+      <c r="P159" s="55">
         <v>0.87360000000000004</v>
       </c>
-      <c r="T155" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB155" s="21">
+      <c r="T159" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB159" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="K156" s="21">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K160" s="21">
         <v>90.55</v>
       </c>
-      <c r="L156" s="21">
+      <c r="L160" s="21">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="M156" s="57">
+      <c r="M160" s="57">
         <v>86.14</v>
       </c>
-      <c r="P156" s="55">
+      <c r="P160" s="55">
         <v>0.86829999999999996</v>
       </c>
-      <c r="T156" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="AB156" s="21">
+      <c r="T160" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB160" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A157" s="32" t="s">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A161" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E161" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K157" s="21">
+      <c r="K161" s="21">
         <v>90.62</v>
       </c>
-      <c r="L157" s="21">
+      <c r="L161" s="21">
         <v>0.38300000000000001</v>
       </c>
-      <c r="M157" s="57">
+      <c r="M161" s="57">
         <v>89.09</v>
       </c>
-      <c r="P157" s="55">
+      <c r="P161" s="55">
         <v>0.89339999999999997</v>
       </c>
-      <c r="T157" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB157" s="21" t="str">
+      <c r="T161" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB161" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="E158" s="21" t="s">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="E162" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K158" s="21">
+      <c r="K162" s="21">
         <v>91.02</v>
       </c>
-      <c r="L158" s="21">
+      <c r="L162" s="21">
         <v>0.38479999999999998</v>
       </c>
-      <c r="M158" s="57">
+      <c r="M162" s="57">
         <v>88.79</v>
       </c>
-      <c r="P158" s="55">
+      <c r="P162" s="55">
         <v>0.89390000000000003</v>
       </c>
-      <c r="T158" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB158" s="21">
+      <c r="T162" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB162" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A159" s="32" t="s">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A163" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E163" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K159" s="21">
+      <c r="K163" s="21">
         <v>90.94</v>
       </c>
-      <c r="L159" s="21">
+      <c r="L163" s="21">
         <v>0.38269999999999998</v>
       </c>
-      <c r="M159" s="57">
+      <c r="M163" s="57">
         <v>89.68</v>
       </c>
-      <c r="P159" s="55">
+      <c r="P163" s="55">
         <v>0.90029999999999999</v>
       </c>
-      <c r="T159" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB159" s="21" t="str">
+      <c r="T163" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB163" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A160" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="E160" s="21" t="s">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A164" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="E164" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K160" s="21">
+      <c r="K164" s="21">
         <v>90.78</v>
       </c>
-      <c r="L160" s="21">
+      <c r="L164" s="21">
         <v>0.38350000000000001</v>
       </c>
-      <c r="M160" s="57">
+      <c r="M164" s="57">
         <v>88.5</v>
       </c>
-      <c r="P160" s="55">
+      <c r="P164" s="55">
         <v>0.89139999999999997</v>
       </c>
-      <c r="T160" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB160" s="21" t="str">
+      <c r="T164" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB164" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="E161" s="21" t="s">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="E165" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K161" s="21">
+      <c r="K165" s="21">
         <v>91.09</v>
       </c>
-      <c r="L161" s="21">
+      <c r="L165" s="21">
         <v>0.38479999999999998</v>
       </c>
-      <c r="M161" s="57">
+      <c r="M165" s="57">
         <v>88.2</v>
       </c>
-      <c r="P161" s="55">
+      <c r="P165" s="55">
         <v>0.88829999999999998</v>
       </c>
-      <c r="T161" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB161" s="21">
+      <c r="T165" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB165" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A162" s="32" t="s">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A166" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E166" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K162" s="21">
+      <c r="K166" s="21">
         <v>90.7</v>
       </c>
-      <c r="L162" s="21">
+      <c r="L166" s="21">
         <v>0.38429999999999997</v>
       </c>
-      <c r="M162" s="57">
+      <c r="M166" s="57">
         <v>88.79</v>
       </c>
-      <c r="P162" s="55">
+      <c r="P166" s="55">
         <v>0.89080000000000004</v>
       </c>
-      <c r="T162" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB162" s="21" t="str">
+      <c r="T166" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB166" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.005, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A163" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="K163" s="21">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A167" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="K167" s="21">
         <v>99.3</v>
       </c>
-      <c r="L163" s="21">
+      <c r="L167" s="21">
         <v>0.73770000000000002</v>
       </c>
-      <c r="M163" s="57">
+      <c r="M167" s="57">
         <v>88.2</v>
       </c>
-      <c r="P163" s="55">
+      <c r="P167" s="55">
         <v>0.8851</v>
       </c>
-      <c r="T163" s="21" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB163" s="21" t="str">
+      <c r="T167" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB167" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.0, feat3)</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="K164" s="21">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K168" s="21">
         <v>99.22</v>
       </c>
-      <c r="L164" s="21">
+      <c r="L168" s="21">
         <v>0.7601</v>
       </c>
-      <c r="M164" s="57">
+      <c r="M168" s="57">
         <v>87.61</v>
       </c>
-      <c r="P164" s="55">
+      <c r="P168" s="55">
         <v>0.88070000000000004</v>
       </c>
-      <c r="T164" s="21" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB164" s="21">
+      <c r="T168" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB168" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="K165" s="21">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K169" s="21">
         <v>99.3</v>
       </c>
-      <c r="L165" s="21">
+      <c r="L169" s="21">
         <v>0.7641</v>
       </c>
-      <c r="M165" s="57">
+      <c r="M169" s="57">
         <v>87.32</v>
       </c>
-      <c r="P165" s="55">
+      <c r="P169" s="55">
         <v>0.87819999999999998</v>
       </c>
-      <c r="T165" s="21" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB165" s="21">
+      <c r="T169" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB169" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A166" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB166" s="21" t="str">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A170" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB170" s="21" t="str">
         <f t="shared" si="3"/>
         <v>val loss가 20에포크까진 급격히 감소하고, 그 이후로 꾸준히 증가</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A167" s="21" t="s">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A171" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="K171" s="21">
+        <v>92.66</v>
+      </c>
+      <c r="L171" s="21">
+        <v>0.3851</v>
+      </c>
+      <c r="M171" s="57">
+        <v>87.91</v>
+      </c>
+      <c r="P171" s="55">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="T171" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB171" s="21" t="str">
+        <f>A171</f>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.003, eta_min 1e-5, )</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A172" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="K172" s="21">
+        <v>93.05</v>
+      </c>
+      <c r="L172" s="21">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="M172" s="57">
+        <v>86.14</v>
+      </c>
+      <c r="P172" s="55">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="T172" s="21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A173" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="K173" s="21">
+        <v>91.95</v>
+      </c>
+      <c r="L173" s="21">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="M173" s="57">
+        <v>87.32</v>
+      </c>
+      <c r="P173" s="55">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="T173" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB173" s="21" t="str">
+        <f>A173</f>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.002에서 시작</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A174" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="K174" s="21">
+        <v>91.48</v>
+      </c>
+      <c r="L174" s="21">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="M174" s="57">
+        <v>87.32</v>
+      </c>
+      <c r="P174" s="55">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="T174" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="K167" s="21">
-        <v>92.66</v>
-      </c>
-      <c r="L167" s="21">
-        <v>0.3851</v>
-      </c>
-      <c r="M167" s="57">
+      <c r="AB174" s="21" t="str">
+        <f>A174</f>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.001에서 시작</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A175" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="K175" s="21">
+        <v>93.2</v>
+      </c>
+      <c r="L175" s="21">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="M175" s="57">
+        <v>85.84</v>
+      </c>
+      <c r="P175" s="55">
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="T175" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB175" s="21" t="str">
+        <f>A175</f>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.003에서 시작</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A176" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20">
+        <v>91.72</v>
+      </c>
+      <c r="L176" s="20">
+        <v>0.38159999999999999</v>
+      </c>
+      <c r="M176" s="66">
+        <v>89.09</v>
+      </c>
+      <c r="N176" s="67"/>
+      <c r="O176" s="67"/>
+      <c r="P176" s="67">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="T176" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K177" s="21">
+        <v>91.72</v>
+      </c>
+      <c r="L177" s="21">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M177" s="57">
+        <v>89.09</v>
+      </c>
+      <c r="P177" s="55">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="T177" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB177" s="21">
+        <f>A177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K178" s="21">
+        <v>91.56</v>
+      </c>
+      <c r="L178" s="21">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="M178" s="57">
+        <v>88.5</v>
+      </c>
+      <c r="P178" s="55">
+        <v>0.8901</v>
+      </c>
+      <c r="T178" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB178" s="21">
+        <f>A178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K179" s="21">
+        <v>91.56</v>
+      </c>
+      <c r="L179" s="21">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="M179" s="57">
+        <v>89.09</v>
+      </c>
+      <c r="P179" s="55">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="T179" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB179" s="21">
+        <f>A179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K180" s="21">
+        <v>91.8</v>
+      </c>
+      <c r="L180" s="21">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="M180" s="57">
+        <v>89.38</v>
+      </c>
+      <c r="P180" s="55">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="T180" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB180" s="21">
+        <f>A180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A181" s="65" t="s">
+        <v>631</v>
+      </c>
+      <c r="K181" s="21">
+        <v>92.27</v>
+      </c>
+      <c r="L181" s="21">
+        <v>0.4284</v>
+      </c>
+      <c r="M181" s="57">
+        <v>88.2</v>
+      </c>
+      <c r="P181" s="55">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="T181" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB181" s="21" t="str">
+        <f>A181</f>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.0, res_attn, lr 0.001, eta_min 1e-4)</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K182" s="21">
+        <v>92.34</v>
+      </c>
+      <c r="L182" s="21">
+        <v>0.4214</v>
+      </c>
+      <c r="M182" s="57">
         <v>87.91</v>
       </c>
-      <c r="P167" s="55">
-        <v>0.88390000000000002</v>
-      </c>
-      <c r="T167" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB167" s="21" t="str">
-        <f>A167</f>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.003, eta_min 1e-5, )</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A168" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="K168" s="21">
-        <v>93.05</v>
-      </c>
-      <c r="L168" s="21">
-        <v>0.44219999999999998</v>
-      </c>
-      <c r="M168" s="57">
-        <v>86.14</v>
-      </c>
-      <c r="P168" s="55">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="T168" s="21" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A169" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="K169" s="21">
-        <v>91.72</v>
-      </c>
-      <c r="L169" s="21">
-        <v>0.38159999999999999</v>
-      </c>
-      <c r="M169" s="57">
+      <c r="P182" s="55">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="T182" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB182" s="21">
+        <f>A182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K183" s="21">
+        <v>92.27</v>
+      </c>
+      <c r="L183" s="21">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="M183" s="57">
+        <v>87.91</v>
+      </c>
+      <c r="P183" s="55">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="T183" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB183" s="21">
+        <f>A183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K184" s="21">
+        <v>92.11</v>
+      </c>
+      <c r="L184" s="21">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="M184" s="57">
         <v>89.09</v>
       </c>
-      <c r="P169" s="55">
-        <v>0.89580000000000004</v>
-      </c>
-      <c r="T169" s="21" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A170" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB170" s="21" t="str">
+      <c r="P184" s="55">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="T184" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB184" s="21">
+        <f>A184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A185" s="65" t="s">
+        <v>636</v>
+      </c>
+      <c r="K185" s="21">
+        <v>90.7</v>
+      </c>
+      <c r="L185" s="21">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="M185" s="57">
+        <v>85.55</v>
+      </c>
+      <c r="P185" s="55">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="T185" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB185" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.002에서 시작</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB171" s="21">
+        <v>Ours (weight_decay 0.0001, ps112, drop0.15, res_attn, lr 0.001, eta_min 1e-4)</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K186" s="21">
+        <v>90.55</v>
+      </c>
+      <c r="L186" s="21">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="M186" s="57">
+        <v>89.09</v>
+      </c>
+      <c r="P186" s="55">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="T186" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB186" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB172" s="21">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K187" s="21">
+        <v>90.7</v>
+      </c>
+      <c r="L187" s="21">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="M187" s="57">
+        <v>86.73</v>
+      </c>
+      <c r="P187" s="55">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="T187" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB187" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB173" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB174" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB175" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB176" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB177" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB178" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB179" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB180" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB181" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB182" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB183" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB184" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB185" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB186" s="21">
-        <f>A186</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB187" s="21">
-        <f>A187</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K188" s="21">
+        <v>90.47</v>
+      </c>
+      <c r="L188" s="21">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="M188" s="57">
+        <v>87.32</v>
+      </c>
+      <c r="P188" s="55">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="T188" s="21" t="s">
+        <v>644</v>
+      </c>
       <c r="AB188" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB189" s="21">
+    <row r="189" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D189" s="21">
+        <v>256</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F189" s="21">
+        <v>90</v>
+      </c>
+      <c r="G189" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H189" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I189" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J189" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="K189" s="20">
+        <v>99.06</v>
+      </c>
+      <c r="L189" s="20">
+        <v>0.64680000000000004</v>
+      </c>
+      <c r="M189" s="66">
+        <v>87.91</v>
+      </c>
+      <c r="N189" s="67"/>
+      <c r="O189" s="67"/>
+      <c r="P189" s="67">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="Q189" s="67"/>
+      <c r="R189" s="67"/>
+      <c r="S189" s="67"/>
+      <c r="T189" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB189" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="28:28" x14ac:dyDescent="0.4">
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A190" s="20"/>
+      <c r="K190" s="20">
+        <v>99.38</v>
+      </c>
+      <c r="L190" s="20">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="M190" s="66">
+        <v>86.43</v>
+      </c>
+      <c r="N190" s="67"/>
+      <c r="O190" s="67"/>
+      <c r="P190" s="67">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="T190" s="21" t="s">
+        <v>647</v>
+      </c>
       <c r="AB190" s="21">
+        <f>A190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K191" s="20">
+        <v>99.06</v>
+      </c>
+      <c r="L191" s="20">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="M191" s="66">
+        <v>87.32</v>
+      </c>
+      <c r="N191" s="67"/>
+      <c r="O191" s="67"/>
+      <c r="P191" s="67">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="T191" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB191" s="21">
+        <f>A191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K192" s="20">
+        <v>99.38</v>
+      </c>
+      <c r="L192" s="20">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="M192" s="66">
+        <v>87.02</v>
+      </c>
+      <c r="N192" s="67"/>
+      <c r="O192" s="67"/>
+      <c r="P192" s="67">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="T192" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB192" s="21">
+        <f>A192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K193" s="20">
+        <v>99.45</v>
+      </c>
+      <c r="L193" s="20">
+        <v>0.7419</v>
+      </c>
+      <c r="M193" s="66">
+        <v>86.43</v>
+      </c>
+      <c r="N193" s="67"/>
+      <c r="O193" s="67"/>
+      <c r="P193" s="67">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="T193" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB193" s="21">
+        <f>A193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A194" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="T194" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB194" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB191" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB192" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB193" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB194" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="28:28" x14ac:dyDescent="0.4">
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 24, emb_dim40)</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB195" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB196" s="21">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A196" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="T196" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB196" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="28:28" x14ac:dyDescent="0.4">
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB197" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB198" s="21">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A198" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="T198" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB198" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="28:28" x14ac:dyDescent="0.4">
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 24, emb_dim24)</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB199" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB200" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB201" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB202" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB203" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB204" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB205" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB206" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB207" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB208" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13687,13 +14708,13 @@
     </row>
     <row r="210" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB210" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AB210:AB273" si="4">A210</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB211" s="21">
-        <f t="shared" ref="AB211:AB274" si="4">A211</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14071,13 +15092,13 @@
     </row>
     <row r="274" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB274" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AB274:AB337" si="5">A274</f>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB275" s="21">
-        <f t="shared" ref="AB275:AB338" si="5">A275</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14455,13 +15476,13 @@
     </row>
     <row r="338" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB338" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AB338:AB401" si="6">A338</f>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB339" s="21">
-        <f t="shared" ref="AB339:AB402" si="6">A339</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14839,13 +15860,13 @@
     </row>
     <row r="402" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB402" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AB402:AB425" si="7">A402</f>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB403" s="21">
-        <f t="shared" ref="AB403:AB426" si="7">A403</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14977,12 +15998,6 @@
     </row>
     <row r="425" spans="28:28" x14ac:dyDescent="0.4">
       <c r="AB425" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB426" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -15013,7 +16028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N153 N155:N1048576">
+  <conditionalFormatting sqref="N1:N157 N159:N1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -15025,7 +16040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O153 O155:O1048576">
+  <conditionalFormatting sqref="O1:O157 O159:O1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15037,7 +16052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P153 P155:P1048576">
+  <conditionalFormatting sqref="P1:P157 P159:P1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15087,30 +16102,23 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
-  <dimension ref="A2:X22"/>
+  <dimension ref="A2:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="92.296875" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="44.09765625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="48.69921875" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
-    <col min="9" max="9" width="22.796875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="104.69921875" customWidth="1"/>
+    <col min="2" max="10" width="6.296875" customWidth="1"/>
     <col min="11" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="25.296875" customWidth="1"/>
     <col min="14" max="19" width="17.796875" style="60" customWidth="1"/>
@@ -15157,7 +16165,7 @@
         <v>496</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M3" s="52" t="s">
         <v>495</v>
@@ -15189,7 +16197,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>53</v>
@@ -15215,10 +16223,10 @@
       <c r="J4" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="69" t="s">
         <v>23</v>
       </c>
       <c r="M4">
@@ -15255,7 +16263,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>53</v>
@@ -15317,7 +16325,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>53</v>
@@ -15380,7 +16388,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>53</v>
@@ -15442,7 +16450,7 @@
         <v>421</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>275</v>
@@ -15500,136 +16508,37 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="21">
-        <v>256</v>
-      </c>
-      <c r="E9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="21">
-        <v>90</v>
-      </c>
-      <c r="G9" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="K9">
-        <v>90.85</v>
-      </c>
-      <c r="L9">
-        <v>0.23039999999999999</v>
-      </c>
-      <c r="M9">
-        <v>90.94</v>
-      </c>
-      <c r="N9" s="60">
-        <v>0.9274</v>
-      </c>
-      <c r="O9" s="60">
-        <v>0.89890000000000003</v>
-      </c>
-      <c r="P9" s="60">
-        <v>0.91290000000000004</v>
-      </c>
-      <c r="Q9" s="60">
-        <v>0.89059999999999995</v>
-      </c>
-      <c r="R9" s="60">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="S9" s="60">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="T9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="21">
-        <v>256</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="21">
-        <v>90</v>
-      </c>
-      <c r="G10" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="K10" s="21">
-        <v>90.9</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0.22509999999999999</v>
-      </c>
-      <c r="M10" s="21">
-        <v>91.06</v>
-      </c>
-      <c r="N10" s="55">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="O10" s="55">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="P10" s="55">
-        <v>0.91420000000000001</v>
-      </c>
-      <c r="Q10" s="55">
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="R10" s="55">
-        <v>0.9204</v>
-      </c>
-      <c r="S10" s="55">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="T10" t="s">
-        <v>567</v>
-      </c>
-      <c r="U10" s="21"/>
-    </row>
-    <row r="11" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="64" t="s">
-        <v>509</v>
-      </c>
       <c r="B11" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>275</v>
@@ -15650,83 +16559,248 @@
         <v>276</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
+      <c r="K11">
+        <v>90.85</v>
+      </c>
+      <c r="L11">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="M11">
+        <v>90.94</v>
+      </c>
+      <c r="N11" s="60">
+        <v>0.9274</v>
+      </c>
+      <c r="O11" s="60">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="P11" s="60">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="Q11" s="60">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="R11" s="60">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="S11" s="60">
+        <v>0.90569999999999995</v>
+      </c>
       <c r="T11" t="s">
-        <v>568</v>
-      </c>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
+        <v>494</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="21"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A14" s="32" t="s">
-        <v>520</v>
+      <c r="A12" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="64" t="s">
+        <v>497</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="65" t="s">
-        <v>604</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>629</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="21">
+        <v>256</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="21">
+        <v>90</v>
+      </c>
+      <c r="G14" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="K14" s="21">
+        <v>90.9</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="M14" s="21">
+        <v>91.06</v>
+      </c>
+      <c r="N14" s="55">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="O14" s="55">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="P14" s="55">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="R14" s="55">
+        <v>0.9204</v>
+      </c>
+      <c r="S14" s="55">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="T14" t="s">
+        <v>560</v>
+      </c>
+      <c r="U14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="B15" s="21"/>
+    </row>
+    <row r="17" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="21">
+        <v>256</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="21">
+        <v>90</v>
+      </c>
+      <c r="G17" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" t="s">
+        <v>561</v>
+      </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" s="65" t="s">
+        <v>519</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="21">
+        <v>256</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="21">
+        <v>90</v>
+      </c>
+      <c r="G23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" s="21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="21"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15835,7 +16909,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15943,7 +17017,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>94</v>
@@ -15984,7 +17058,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>95</v>
@@ -16025,7 +17099,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>96</v>
@@ -16066,7 +17140,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>98</v>
@@ -16192,7 +17266,7 @@
         <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>160</v>
@@ -16233,7 +17307,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>166</v>
@@ -16274,7 +17348,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>151</v>
@@ -16315,7 +17389,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>172</v>
@@ -16476,7 +17550,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D22" s="1">
         <v>0.30220000000000002</v>
@@ -16517,7 +17591,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D23" s="1">
         <v>0.21440000000000001</v>
@@ -16558,7 +17632,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>67</v>
@@ -16599,7 +17673,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>172</v>
@@ -16760,7 +17834,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>127</v>
@@ -16801,7 +17875,7 @@
         <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>236</v>
@@ -16842,7 +17916,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>133</v>
@@ -16883,7 +17957,7 @@
         <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>172</v>
@@ -18765,7 +19839,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:L3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>

--- a/table (version 2).xlsx
+++ b/table (version 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{86D97F84-8D7B-4055-8657-552FB47F8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{66FB8F01-52BA-42A7-AF02-FD23DE1391F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="660" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="682">
   <si>
     <t>모델</t>
   </si>
@@ -2942,6 +2942,295 @@
   </si>
   <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_122001</t>
+  </si>
+  <si>
+    <t>feat3를 할 거면, 24말고 둘 다 40이 맞구나.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> label_smooth 0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_124940</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_125047</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_125058</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_125100</t>
+  </si>
+  <si>
+    <r>
+      <t>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label_smooth 0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_134838</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_134857</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_134911</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay 0.001, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ps56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, drop0.1, res_attn, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stride56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, eff_feat3, featured_patch_dim 40, emb_dim40, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label_smooth 0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay 0.001, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ps112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, drop0.1, res_attn, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stride56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, eff_feat3, featured_patch_dim 40, emb_dim40, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label_smooth 0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ps, stride) (112,112), (112,56)에 비해서 (56, 56)은 많이 별로다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_134838/attention_map_20251119_134838/12-08410-B.mp4_20190321182740/12-08410-B.mp4_20190321182740_compile.png</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_124940/attention_map_20251119_124940/12-08410-B.mp4_20190321182740/12-08410-B.mp4_20190321182740_compile.png</t>
+  </si>
+  <si>
+    <t>(112,112) 보다 (112,56)이 어텐션맵이 더 잘 나왔다. 아래는 순서대로 (112,112), (112, 56)의 어텐션맵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ours (weight_decay 0.001, ps112, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim40, label_smooth 0.1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_142803</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_142806</t>
+  </si>
+  <si>
+    <t>dropout 높이니까 오히려 val loss가 증가한다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3462,13 +3751,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>6610531</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>144329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>574222</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>113693</xdr:rowOff>
@@ -3506,13 +3795,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>271314</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>72056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>225334</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>3265</xdr:rowOff>
@@ -3550,13 +3839,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>6887755</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>35017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>495841</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>34994</xdr:rowOff>
@@ -3594,13 +3883,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>339633</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>135697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>148773</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>155471</xdr:rowOff>
@@ -3638,13 +3927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>6872334</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>159310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>459440</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>148772</xdr:rowOff>
@@ -7599,11 +7888,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
-  <dimension ref="A1:AB425"/>
+  <dimension ref="A1:AA425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
+      <pane ySplit="3" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7625,31 +7914,32 @@
     <col min="15" max="15" width="13" style="55" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="18.59765625" style="55" customWidth="1"/>
     <col min="17" max="19" width="18.59765625" style="55" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="8.796875" style="21"/>
-    <col min="27" max="27" width="7.59765625" style="21" customWidth="1"/>
-    <col min="28" max="28" width="91.796875" style="21" customWidth="1"/>
-    <col min="29" max="16384" width="8.796875" style="21"/>
+    <col min="20" max="20" width="8.796875" style="21"/>
+    <col min="21" max="25" width="8.796875" style="21" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" style="21" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="91.796875" style="21" customWidth="1"/>
+    <col min="28" max="16384" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="AB1" s="21" t="str">
-        <f t="shared" ref="AB1:AB64" si="0">A1</f>
+      <c r="AA1" s="21" t="str">
+        <f t="shared" ref="AA1:AA64" si="0">A1</f>
         <v>weight_decay: adamW의 억제기, 물론 sgd에서도 사용하긴 하지만 그건 논문에서 지정한 0.0001이 있으므로 수정 안 함</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="72" t="s">
         <v>590</v>
       </c>
-      <c r="AB2" s="21" t="str">
+      <c r="AA2" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps56, res_attn false, layers2, patch1, ff_ratio2, lr0.001, PEtrue, eta_min: 0.000001, efficientnet_b0 feat2, featured_patch_dim 24, emb_dim 24, decoderlayers2, Tmax90, ffratio 2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
@@ -7710,12 +8000,12 @@
       <c r="T3" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="AB3" s="21" t="str">
+      <c r="AA3" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Model</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="51" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" s="51" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="50" t="s">
         <v>65</v>
       </c>
@@ -7772,12 +8062,12 @@
       <c r="T4" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="AB4" s="21" t="str">
+      <c r="AA4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Xie2019</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -7814,12 +8104,12 @@
       <c r="T5" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AA5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -7856,12 +8146,12 @@
       <c r="T6" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AA6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -7898,12 +8188,12 @@
       <c r="T7" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AA7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -7940,12 +8230,12 @@
       <c r="T8" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AA8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="50" t="s">
         <v>3</v>
       </c>
@@ -8002,12 +8292,12 @@
       <c r="T9" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="AB9" s="21" t="str">
+      <c r="AA9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Resnet-18</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -8044,12 +8334,12 @@
       <c r="T10" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="AB10" s="21">
+      <c r="AA10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -8086,12 +8376,12 @@
       <c r="T11" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="AB11" s="21">
+      <c r="AA11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -8128,12 +8418,12 @@
       <c r="T12" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AA12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -8170,12 +8460,12 @@
       <c r="T13" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="AB13" s="21">
+      <c r="AA13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="50" t="s">
         <v>4</v>
       </c>
@@ -8232,12 +8522,12 @@
       <c r="T14" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="AB14" s="21" t="str">
+      <c r="AA14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Efficientnet_b0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -8274,12 +8564,12 @@
       <c r="T15" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="AB15" s="21">
+      <c r="AA15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -8316,12 +8606,12 @@
       <c r="T16" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="AB16" s="21">
+      <c r="AA16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -8358,12 +8648,12 @@
       <c r="T17" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="AB17" s="21">
+      <c r="AA17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -8400,12 +8690,12 @@
       <c r="T18" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="AB18" s="21">
+      <c r="AA18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A19" s="50" t="s">
         <v>6</v>
       </c>
@@ -8462,12 +8752,12 @@
       <c r="T19" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="AB19" s="21" t="str">
+      <c r="AA19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Mobilenet_v4_small</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -8504,12 +8794,12 @@
       <c r="T20" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="AB20" s="21">
+      <c r="AA20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -8546,12 +8836,12 @@
       <c r="T21" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AA21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -8588,12 +8878,12 @@
       <c r="T22" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="AB22" s="21">
+      <c r="AA22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -8630,12 +8920,12 @@
       <c r="T23" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="AB23" s="21">
+      <c r="AA23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="46" t="s">
         <v>305</v>
       </c>
@@ -8693,12 +8983,12 @@
       <c r="T24" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="AB24" s="21" t="str">
+      <c r="AA24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.0, ps112, drop0.1)</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K25" s="21">
         <v>90.94</v>
       </c>
@@ -8726,12 +9016,12 @@
       <c r="T25" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="AB25" s="21">
+      <c r="AA25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K26" s="21">
         <v>90.62</v>
       </c>
@@ -8759,12 +9049,12 @@
       <c r="T26" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="AB26" s="21">
+      <c r="AA26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K27" s="21">
         <v>91.17</v>
       </c>
@@ -8792,12 +9082,12 @@
       <c r="T27" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AA27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K28" s="21">
         <v>90.94</v>
       </c>
@@ -8825,12 +9115,12 @@
       <c r="T28" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="AB28" s="21">
+      <c r="AA28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="46" t="s">
         <v>338</v>
       </c>
@@ -8888,12 +9178,12 @@
       <c r="T29" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="AB29" s="21" t="str">
+      <c r="AA29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.0, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K30" s="21">
         <v>91.09</v>
       </c>
@@ -8921,12 +9211,12 @@
       <c r="T30" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="AB30" s="21">
+      <c r="AA30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K31" s="21">
         <v>91.02</v>
       </c>
@@ -8954,12 +9244,12 @@
       <c r="T31" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="AB31" s="21">
+      <c r="AA31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K32" s="21">
         <v>91.17</v>
       </c>
@@ -8987,12 +9277,12 @@
       <c r="T32" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="AB32" s="21">
+      <c r="AA32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K33" s="21">
         <v>90.86</v>
       </c>
@@ -9020,12 +9310,12 @@
       <c r="T33" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="AB33" s="21">
+      <c r="AA33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A34" s="46" t="s">
         <v>379</v>
       </c>
@@ -9083,12 +9373,12 @@
       <c r="T34" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="AB34" s="21" t="str">
+      <c r="AA34" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1)</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K35" s="21">
         <v>91.25</v>
       </c>
@@ -9116,12 +9406,12 @@
       <c r="T35" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="AB35" s="21">
+      <c r="AA35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K36" s="21">
         <v>91.02</v>
       </c>
@@ -9149,12 +9439,12 @@
       <c r="T36" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AA36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K37" s="21">
         <v>91.33</v>
       </c>
@@ -9182,12 +9472,12 @@
       <c r="T37" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="AB37" s="21">
+      <c r="AA37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K38" s="21">
         <v>90.94</v>
       </c>
@@ -9215,12 +9505,12 @@
       <c r="T38" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="AB38" s="21">
+      <c r="AA38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A39" s="46" t="s">
         <v>420</v>
       </c>
@@ -9278,12 +9568,12 @@
       <c r="T39" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="AB39" s="21" t="str">
+      <c r="AA39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, rest_attn)</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K40" s="21">
         <v>90.78</v>
       </c>
@@ -9311,12 +9601,12 @@
       <c r="T40" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="AB40" s="21">
+      <c r="AA40" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K41" s="21">
         <v>91.09</v>
       </c>
@@ -9344,12 +9634,12 @@
       <c r="T41" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="AB41" s="21">
+      <c r="AA41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K42" s="21">
         <v>91.02</v>
       </c>
@@ -9377,12 +9667,12 @@
       <c r="T42" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="AB42" s="21">
+      <c r="AA42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K43" s="21">
         <v>91.09</v>
       </c>
@@ -9410,12 +9700,12 @@
       <c r="T43" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="AB43" s="21">
+      <c r="AA43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A44" s="46" t="s">
         <v>332</v>
       </c>
@@ -9473,12 +9763,12 @@
       <c r="T44" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="AB44" s="21" t="str">
+      <c r="AA44" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1)</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K45" s="21">
         <v>91.09</v>
       </c>
@@ -9506,12 +9796,12 @@
       <c r="T45" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="AB45" s="21">
+      <c r="AA45" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K46" s="21">
         <v>91.09</v>
       </c>
@@ -9539,12 +9829,12 @@
       <c r="T46" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="AB46" s="21">
+      <c r="AA46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K47" s="21">
         <v>91.25</v>
       </c>
@@ -9572,12 +9862,12 @@
       <c r="T47" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="AB47" s="21">
+      <c r="AA47" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K48" s="21">
         <v>91.25</v>
       </c>
@@ -9605,12 +9895,12 @@
       <c r="T48" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="AB48" s="21">
+      <c r="AA48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="54" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" s="54" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A49" s="63" t="s">
         <v>421</v>
       </c>
@@ -9671,12 +9961,12 @@
       <c r="T49" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="AB49" s="62" t="str">
+      <c r="AA49" s="62" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K50" s="21">
         <v>90.86</v>
       </c>
@@ -9704,12 +9994,12 @@
       <c r="T50" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="AB50" s="21">
+      <c r="AA50" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K51" s="21">
         <v>91.02</v>
       </c>
@@ -9737,12 +10027,12 @@
       <c r="T51" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="AB51" s="21">
+      <c r="AA51" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K52" s="21">
         <v>91.17</v>
       </c>
@@ -9770,12 +10060,12 @@
       <c r="T52" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="AB52" s="21">
+      <c r="AA52" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K53" s="21">
         <v>91.02</v>
       </c>
@@ -9803,12 +10093,12 @@
       <c r="T53" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB53" s="21">
+      <c r="AA53" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" s="46" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A54" s="46" t="s">
         <v>308</v>
       </c>
@@ -9866,12 +10156,12 @@
       <c r="T54" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="AB54" s="21" t="str">
+      <c r="AA54" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.0, ps112, drop0.2)</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A55" s="21" t="s">
         <v>376</v>
       </c>
@@ -9929,12 +10219,12 @@
       <c r="T55" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AB55" s="21" t="str">
+      <c r="AA55" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.2)</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A56" s="21" t="s">
         <v>407</v>
       </c>
@@ -9992,12 +10282,12 @@
       <c r="T56" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="AB56" s="21" t="str">
+      <c r="AA56" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.01, ps56, drop0.1)</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A57" s="21" t="s">
         <v>379</v>
       </c>
@@ -10055,12 +10345,12 @@
       <c r="T57" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="AB57" s="21" t="str">
+      <c r="AA57" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1)</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A58" s="21" t="s">
         <v>410</v>
       </c>
@@ -10118,12 +10408,12 @@
       <c r="T58" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="AB58" s="21" t="str">
+      <c r="AA58" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours 2 (weight_decay 0.01, ps112, drop0.1)</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A59" s="21" t="s">
         <v>413</v>
       </c>
@@ -10181,12 +10471,12 @@
       <c r="T59" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="AB59" s="21" t="str">
+      <c r="AA59" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours 2 (weight_decay 0.1, ps112, drop0.1)</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A60" s="21" t="s">
         <v>430</v>
       </c>
@@ -10244,12 +10534,12 @@
       <c r="T60" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="AB60" s="21" t="str">
+      <c r="AA60" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.01, ps224, drop0.1)</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A61" s="21" t="s">
         <v>434</v>
       </c>
@@ -10307,12 +10597,12 @@
       <c r="T61" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="AB61" s="21" t="str">
+      <c r="AA61" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, emb_dim 36)</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K62" s="21">
         <v>91.88</v>
       </c>
@@ -10340,12 +10630,12 @@
       <c r="T62" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="AB62" s="21">
+      <c r="AA62" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A63" s="21" t="s">
         <v>435</v>
       </c>
@@ -10403,12 +10693,12 @@
       <c r="T63" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="AB63" s="21" t="str">
+      <c r="AA63" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, emb_dim 48)</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K64" s="21">
         <v>91.33</v>
       </c>
@@ -10436,12 +10726,12 @@
       <c r="T64" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="AB64" s="21">
+      <c r="AA64" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A65" s="21" t="s">
         <v>440</v>
       </c>
@@ -10499,12 +10789,12 @@
       <c r="T65" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="AB65" s="21" t="str">
-        <f t="shared" ref="AB65:AB132" si="1">A65</f>
+      <c r="AA65" s="21" t="str">
+        <f t="shared" ref="AA65:AA132" si="1">A65</f>
         <v>Ours (weight_decay 0.15, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K66" s="21">
         <v>90.94</v>
       </c>
@@ -10532,12 +10822,12 @@
       <c r="T66" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="AB66" s="21">
+      <c r="AA66" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K67" s="21">
         <v>90.86</v>
       </c>
@@ -10565,12 +10855,12 @@
       <c r="T67" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="AB67" s="21">
+      <c r="AA67" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K68" s="21">
         <v>91.09</v>
       </c>
@@ -10598,12 +10888,12 @@
       <c r="T68" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="AB68" s="21">
+      <c r="AA68" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A69" s="21" t="s">
         <v>448</v>
       </c>
@@ -10661,12 +10951,12 @@
       <c r="T69" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="AB69" s="21" t="str">
+      <c r="AA69" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.15, ps112, drop0.1, res_attn, lr 0.002)</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K70" s="21">
         <v>92.81</v>
       </c>
@@ -10694,12 +10984,12 @@
       <c r="T70" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="AB70" s="21">
+      <c r="AA70" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K71" s="21">
         <v>93.05</v>
       </c>
@@ -10727,12 +11017,12 @@
       <c r="T71" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="AB71" s="21">
+      <c r="AA71" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A72" s="21" t="s">
         <v>451</v>
       </c>
@@ -10781,12 +11071,12 @@
       <c r="T72" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="AB72" s="21" t="str">
+      <c r="AA72" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, layers5)</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K73" s="21">
         <v>91.56</v>
       </c>
@@ -10799,12 +11089,12 @@
       <c r="T73" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="AB73" s="21">
+      <c r="AA73" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K74" s="21">
         <v>91.64</v>
       </c>
@@ -10817,12 +11107,12 @@
       <c r="T74" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="AB74" s="21">
+      <c r="AA74" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K75" s="21">
         <v>91.72</v>
       </c>
@@ -10835,12 +11125,12 @@
       <c r="T75" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="AB75" s="21">
+      <c r="AA75" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A76" s="21" t="s">
         <v>456</v>
       </c>
@@ -10883,12 +11173,12 @@
       <c r="T76" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="AB76" s="21" t="str">
+      <c r="AA76" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, layers5)</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K77" s="21">
         <v>91.72</v>
       </c>
@@ -10901,12 +11191,12 @@
       <c r="T77" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="AB77" s="21">
+      <c r="AA77" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K78" s="21">
         <v>91.41</v>
       </c>
@@ -10919,12 +11209,12 @@
       <c r="T78" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="AB78" s="21">
+      <c r="AA78" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K79" s="21">
         <v>91.33</v>
       </c>
@@ -10937,12 +11227,12 @@
       <c r="T79" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="AB79" s="21">
+      <c r="AA79" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="62" t="s">
         <v>464</v>
       </c>
@@ -10993,12 +11283,12 @@
       <c r="T80" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="AB80" s="62" t="str">
+      <c r="AA80" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K81" s="21">
         <v>90.86</v>
       </c>
@@ -11011,12 +11301,12 @@
       <c r="T81" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="AB81" s="21">
+      <c r="AA81" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K82" s="21">
         <v>90.94</v>
       </c>
@@ -11029,12 +11319,12 @@
       <c r="T82" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="AB82" s="21">
+      <c r="AA82" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K83" s="21">
         <v>90.78</v>
       </c>
@@ -11047,12 +11337,12 @@
       <c r="T83" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="AB83" s="21">
+      <c r="AA83" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A84" s="21" t="s">
         <v>474</v>
       </c>
@@ -11095,12 +11385,12 @@
       <c r="T84" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="AB84" s="21" t="str">
+      <c r="AA84" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.001)</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A85" s="21" t="s">
         <v>476</v>
       </c>
@@ -11143,12 +11433,12 @@
       <c r="T85" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="AB85" s="21" t="str">
+      <c r="AA85" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.1)</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A86" s="21" t="s">
         <v>475</v>
       </c>
@@ -11191,12 +11481,12 @@
       <c r="T86" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="AB86" s="21" t="str">
+      <c r="AA86" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.1)</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A87" s="21" t="s">
         <v>475</v>
       </c>
@@ -11239,12 +11529,12 @@
       <c r="T87" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="AB87" s="21" t="str">
+      <c r="AA87" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.1)</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A88" s="21" t="s">
         <v>475</v>
       </c>
@@ -11287,12 +11577,12 @@
       <c r="T88" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="AB88" s="21" t="str">
+      <c r="AA88" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.1)</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A89" s="21" t="s">
         <v>463</v>
       </c>
@@ -11335,12 +11625,12 @@
       <c r="T89" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="AB89" s="21" t="str">
+      <c r="AA89" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K90" s="21">
         <v>90.39</v>
       </c>
@@ -11353,12 +11643,12 @@
       <c r="T90" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="AB90" s="21">
+      <c r="AA90" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K91" s="21">
         <v>90.31</v>
       </c>
@@ -11371,12 +11661,12 @@
       <c r="T91" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="AB91" s="21">
+      <c r="AA91" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K92" s="21">
         <v>90.78</v>
       </c>
@@ -11389,12 +11679,12 @@
       <c r="T92" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="AB92" s="21">
+      <c r="AA92" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A93" s="21" t="s">
         <v>489</v>
       </c>
@@ -11437,12 +11727,12 @@
       <c r="T93" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="AB93" s="21" t="str">
+      <c r="AA93" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min0.0001)</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K94" s="21">
         <v>91.09</v>
       </c>
@@ -11455,12 +11745,12 @@
       <c r="T94" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="AB94" s="21">
+      <c r="AA94" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A95" s="21" t="s">
         <v>484</v>
       </c>
@@ -11503,12 +11793,12 @@
       <c r="T95" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="AB95" s="21" t="str">
+      <c r="AA95" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min0.0003)</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A96" s="21" t="s">
         <v>488</v>
       </c>
@@ -11551,12 +11841,12 @@
       <c r="T96" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="AB96" s="21" t="str">
+      <c r="AA96" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min0.0005)</v>
       </c>
     </row>
-    <row r="97" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="62" t="s">
         <v>497</v>
       </c>
@@ -11607,12 +11897,12 @@
       <c r="T97" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="AB97" s="62" t="str">
+      <c r="AA97" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps56, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K98" s="21">
         <v>93.91</v>
       </c>
@@ -11625,12 +11915,12 @@
       <c r="T98" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="AB98" s="21">
+      <c r="AA98" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K99" s="21">
         <v>93.91</v>
       </c>
@@ -11643,12 +11933,12 @@
       <c r="T99" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="AB99" s="21">
+      <c r="AA99" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K100" s="21">
         <v>93.12</v>
       </c>
@@ -11661,12 +11951,12 @@
       <c r="T100" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="AB100" s="21">
+      <c r="AA100" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A101" s="21" t="s">
         <v>503</v>
       </c>
@@ -11709,12 +11999,12 @@
       <c r="T101" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="AB101" s="21" t="str">
+      <c r="AA101" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps75, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K102" s="21">
         <v>92.34</v>
       </c>
@@ -11727,12 +12017,12 @@
       <c r="T102" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="AB102" s="21">
+      <c r="AA102" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K103" s="21">
         <v>92.5</v>
       </c>
@@ -11745,12 +12035,12 @@
       <c r="T103" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="AB103" s="21">
+      <c r="AA103" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K104" s="21">
         <v>91.95</v>
       </c>
@@ -11760,12 +12050,12 @@
       <c r="T104" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="AB104" s="21">
+      <c r="AA104" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="62" t="s">
         <v>513</v>
       </c>
@@ -11816,12 +12106,12 @@
       <c r="T105" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="AB105" s="62" t="str">
+      <c r="AA105" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56)</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A106" s="21" t="s">
         <v>517</v>
       </c>
@@ -11855,12 +12145,12 @@
       <c r="L106" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="AB106" s="21" t="str">
+      <c r="AA106" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56, eff_feat3)</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A107" s="21" t="s">
         <v>518</v>
       </c>
@@ -11891,12 +12181,12 @@
       <c r="J107" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="AB107" s="21" t="str">
+      <c r="AA107" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride56, eff_feat3)</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A108" s="21" t="s">
         <v>514</v>
       </c>
@@ -11939,12 +12229,12 @@
       <c r="T108" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="AB108" s="21" t="str">
+      <c r="AA108" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A109" s="21" t="s">
         <v>515</v>
       </c>
@@ -11987,13 +12277,13 @@
       <c r="T109" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="AB109" s="21" t="str">
+      <c r="AA109" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="110" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="62" t="s">
+    <row r="110" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="65" t="s">
         <v>519</v>
       </c>
       <c r="B110" s="20" t="s">
@@ -12043,12 +12333,12 @@
       <c r="T110" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="AB110" s="62" t="str">
+      <c r="AA110" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K111" s="20">
         <v>99.38</v>
       </c>
@@ -12066,12 +12356,12 @@
       <c r="T111" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="AB111" s="21">
+      <c r="AA111" s="21">
         <f>A111</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K112" s="20">
         <v>99.06</v>
       </c>
@@ -12089,12 +12379,12 @@
       <c r="T112" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="AB112" s="21">
+      <c r="AA112" s="21">
         <f>A112</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K113" s="20">
         <v>99.38</v>
       </c>
@@ -12112,12 +12402,12 @@
       <c r="T113" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="AB113" s="21">
+      <c r="AA113" s="21">
         <f>A113</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K114" s="20">
         <v>99.45</v>
       </c>
@@ -12135,12 +12425,12 @@
       <c r="T114" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="AB114" s="21">
+      <c r="AA114" s="21">
         <f>A114</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A115" s="21" t="s">
         <v>651</v>
       </c>
@@ -12186,12 +12476,12 @@
       <c r="T115" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="AB115" s="21" t="str">
+      <c r="AA115" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A116" s="21" t="s">
         <v>652</v>
       </c>
@@ -12237,12 +12527,12 @@
       <c r="T116" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="AB116" s="21" t="str">
+      <c r="AA116" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A117" s="21" t="s">
         <v>525</v>
       </c>
@@ -12288,12 +12578,12 @@
       <c r="T117" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="AB117" s="21" t="str">
+      <c r="AA117" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A118" s="21" t="s">
         <v>653</v>
       </c>
@@ -12339,12 +12629,12 @@
       <c r="T118" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="AB118" s="21" t="str">
+      <c r="AA118" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A119" s="21" t="s">
         <v>654</v>
       </c>
@@ -12390,12 +12680,12 @@
       <c r="T119" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="AB119" s="21" t="str">
+      <c r="AA119" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A120" s="21" t="s">
         <v>655</v>
       </c>
@@ -12441,12 +12731,12 @@
       <c r="T120" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="AB120" s="21" t="str">
+      <c r="AA120" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.2, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A121" s="21" t="s">
         <v>530</v>
       </c>
@@ -12483,12 +12773,12 @@
       <c r="T121" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="AB121" s="21" t="str">
+      <c r="AA121" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A122" s="21" t="s">
         <v>532</v>
       </c>
@@ -12525,12 +12815,12 @@
       <c r="T122" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="AB122" s="21" t="str">
+      <c r="AA122" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A123" s="21" t="s">
         <v>535</v>
       </c>
@@ -12567,12 +12857,12 @@
       <c r="T123" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="AB123" s="21" t="str">
+      <c r="AA123" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, ps150, stride75, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A124" s="21" t="s">
         <v>512</v>
       </c>
@@ -12606,12 +12896,12 @@
       <c r="T124" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="AB124" s="21" t="str">
+      <c r="AA124" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A125" s="21" t="s">
         <v>510</v>
       </c>
@@ -12645,12 +12935,12 @@
       <c r="T125" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="AB125" s="21" t="str">
+      <c r="AA125" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A126" s="21" t="s">
         <v>656</v>
       </c>
@@ -12696,12 +12986,12 @@
       <c r="T126" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="AB126" s="21" t="str">
+      <c r="AA126" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A127" s="21" t="s">
         <v>540</v>
       </c>
@@ -12747,12 +13037,12 @@
       <c r="T127" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="AB127" s="21" t="str">
+      <c r="AA127" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A128" s="21" t="s">
         <v>542</v>
       </c>
@@ -12798,12 +13088,12 @@
       <c r="T128" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="AB128" s="21" t="str">
+      <c r="AA128" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0005)</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A129" s="21" t="s">
         <v>544</v>
       </c>
@@ -12840,12 +13130,12 @@
       <c r="T129" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="AB129" s="21" t="str">
+      <c r="AA129" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.1, ps112, drop0.4, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A130" s="21" t="s">
         <v>546</v>
       </c>
@@ -12882,12 +13172,12 @@
       <c r="T130" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="AB130" s="21" t="str">
+      <c r="AA130" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.4, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A131" s="21" t="s">
         <v>548</v>
       </c>
@@ -12924,12 +13214,12 @@
       <c r="T131" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="AB131" s="21" t="str">
+      <c r="AA131" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.4, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A132" s="21" t="s">
         <v>552</v>
       </c>
@@ -12975,12 +13265,12 @@
       <c r="T132" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="AB132" s="21" t="str">
+      <c r="AA132" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, lr0.0001)</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A133" s="21" t="s">
         <v>553</v>
       </c>
@@ -13026,12 +13316,12 @@
       <c r="T133" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="AB133" s="21" t="str">
-        <f t="shared" ref="AB133:AB149" si="2">A133</f>
+      <c r="AA133" s="21" t="str">
+        <f t="shared" ref="AA133:AA149" si="2">A133</f>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, stride112, eff_feat3, featured_patch_dim 40, emb_dim24, lr0.0001)</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A134" s="21" t="s">
         <v>554</v>
       </c>
@@ -13077,12 +13367,12 @@
       <c r="T134" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="AB134" s="21" t="str">
+      <c r="AA134" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, stride112, eff_feat3, featured_patch_dim 40, emb_dim24, lr0.0001, decoderlayes1)</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A135" s="20" t="s">
         <v>558</v>
       </c>
@@ -13128,12 +13418,12 @@
       <c r="T135" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="AB135" s="21" t="str">
+      <c r="AA135" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112)</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A136" s="21" t="s">
         <v>566</v>
       </c>
@@ -13179,21 +13469,21 @@
       <c r="T136" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="AB136" s="21" t="str">
+      <c r="AA136" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, scheduler none, lr 0.001)</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A137" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="AB137" s="21" t="str">
+      <c r="AA137" s="21" t="str">
         <f t="shared" si="2"/>
         <v>시작하자마자 20 에포크 이전에 이미 val loss가 최소치로 내려가고, 그 이후로 정체됨</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A138" s="21" t="s">
         <v>563</v>
       </c>
@@ -13239,12 +13529,12 @@
       <c r="T138" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="AB138" s="21" t="str">
+      <c r="AA138" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax20)</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A139" s="21" t="s">
         <v>565</v>
       </c>
@@ -13290,21 +13580,21 @@
       <c r="T139" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="AB139" s="21" t="str">
+      <c r="AA139" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, scheduler none, lr 0.0001)</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A140" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="AB140" s="21" t="str">
+      <c r="AA140" s="21" t="str">
         <f t="shared" si="2"/>
         <v>90에포크까지 천천히 지속적으로 val loss가 감소함</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A141" s="21" t="s">
         <v>569</v>
       </c>
@@ -13350,12 +13640,12 @@
       <c r="T141" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="AB141" s="21" t="str">
+      <c r="AA141" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30)</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A142" s="21" t="s">
         <v>571</v>
       </c>
@@ -13401,12 +13691,12 @@
       <c r="T142" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="AB142" s="21" t="str">
+      <c r="AA142" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30, decoderpatch2)</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A143" s="21" t="s">
         <v>573</v>
       </c>
@@ -13425,21 +13715,21 @@
       <c r="T143" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="AB143" s="21" t="str">
+      <c r="AA143" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, Tmax30, lr 0.0001)</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A144" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="AB144" s="21" t="str">
+      <c r="AA144" s="21" t="str">
         <f t="shared" si="2"/>
         <v>val loss가 감소하긴 하는데 너무 큼. 코싸인 어닝하더라도 시작 lr 이 0.0001은 너무 작다.</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A145" s="21" t="s">
         <v>568</v>
       </c>
@@ -13458,12 +13748,12 @@
       <c r="T145" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="AB145" s="21" t="str">
+      <c r="AA145" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps56, drop0.1, res_attn, stride28)</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A146" s="20" t="s">
         <v>508</v>
       </c>
@@ -13482,12 +13772,12 @@
       <c r="T146" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="AB146" s="21" t="str">
+      <c r="AA146" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride56)</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A147" s="21" t="s">
         <v>581</v>
       </c>
@@ -13506,12 +13796,12 @@
       <c r="T147" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="AB147" s="21" t="str">
+      <c r="AA147" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, mobilev4_feat1, fpd32, embdim32)</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A148" s="21" t="s">
         <v>582</v>
       </c>
@@ -13530,12 +13820,12 @@
       <c r="T148" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="AB148" s="21" t="str">
+      <c r="AA148" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, mobilev3_feat3)</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A149" s="21" t="s">
         <v>584</v>
       </c>
@@ -13554,12 +13844,12 @@
       <c r="T149" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="AB149" s="21" t="str">
+      <c r="AA149" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A150" s="21" t="s">
         <v>586</v>
       </c>
@@ -13578,12 +13868,12 @@
       <c r="T150" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="AB150" s="21" t="str">
+      <c r="AA150" s="21" t="str">
         <f>A150</f>
         <v>Ours (weight_decay 0.001, ps112, drop0.5, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24,)</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A151" s="21" t="s">
         <v>588</v>
       </c>
@@ -13602,12 +13892,12 @@
       <c r="T151" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="AB151" s="21" t="str">
-        <f t="shared" ref="AB151:AB209" si="3">A151</f>
+      <c r="AA151" s="21" t="str">
+        <f t="shared" ref="AA151:AA209" si="3">A151</f>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, head4)</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A152" s="21" t="s">
         <v>589</v>
       </c>
@@ -13626,12 +13916,12 @@
       <c r="T152" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="AB152" s="21" t="str">
+      <c r="AA152" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, head4, ffratio 1)</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A153" s="21" t="s">
         <v>593</v>
       </c>
@@ -13641,12 +13931,12 @@
       <c r="T153" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="AB153" s="21" t="str">
+      <c r="AA153" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, stride112, ffratio1)</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A154" s="21" t="s">
         <v>596</v>
       </c>
@@ -13656,12 +13946,12 @@
       <c r="T154" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="AB154" s="21" t="str">
+      <c r="AA154" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.5, res_attn, stride112, ffratio1)</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A155" s="65" t="s">
         <v>597</v>
       </c>
@@ -13691,12 +13981,12 @@
       <c r="T155" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="AB155" s="21" t="str">
+      <c r="AA155" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.0, res_attn)</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K156" s="21">
         <v>92.89</v>
       </c>
@@ -13712,12 +14002,12 @@
       <c r="T156" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="AB156" s="21">
+      <c r="AA156" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K157" s="21">
         <v>93.2</v>
       </c>
@@ -13733,12 +14023,12 @@
       <c r="T157" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="AB157" s="21">
+      <c r="AA157" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A158" s="65" t="s">
         <v>464</v>
       </c>
@@ -13760,12 +14050,12 @@
       <c r="T158" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="AB158" s="21" t="str">
+      <c r="AA158" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K159" s="21">
         <v>90.55</v>
       </c>
@@ -13781,12 +14071,12 @@
       <c r="T159" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="AB159" s="21">
+      <c r="AA159" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K160" s="21">
         <v>90.55</v>
       </c>
@@ -13802,12 +14092,12 @@
       <c r="T160" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="AB160" s="21">
+      <c r="AA160" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A161" s="32" t="s">
         <v>464</v>
       </c>
@@ -13829,12 +14119,12 @@
       <c r="T161" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="AB161" s="21" t="str">
+      <c r="AA161" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.4">
       <c r="E162" s="21" t="s">
         <v>100</v>
       </c>
@@ -13853,12 +14143,12 @@
       <c r="T162" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="AB162" s="21">
+      <c r="AA162" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A163" s="32" t="s">
         <v>464</v>
       </c>
@@ -13880,12 +14170,12 @@
       <c r="T163" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="AB163" s="21" t="str">
+      <c r="AA163" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A164" s="32" t="s">
         <v>608</v>
       </c>
@@ -13907,12 +14197,12 @@
       <c r="T164" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="AB164" s="21" t="str">
+      <c r="AA164" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.4">
       <c r="E165" s="21" t="s">
         <v>100</v>
       </c>
@@ -13931,12 +14221,12 @@
       <c r="T165" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="AB165" s="21">
+      <c r="AA165" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A166" s="32" t="s">
         <v>462</v>
       </c>
@@ -13958,12 +14248,12 @@
       <c r="T166" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="AB166" s="21" t="str">
+      <c r="AA166" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.005, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A167" s="32" t="s">
         <v>612</v>
       </c>
@@ -13982,12 +14272,12 @@
       <c r="T167" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="AB167" s="21" t="str">
+      <c r="AA167" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.0, feat3)</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K168" s="21">
         <v>99.22</v>
       </c>
@@ -14003,12 +14293,12 @@
       <c r="T168" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="AB168" s="21">
+      <c r="AA168" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K169" s="21">
         <v>99.3</v>
       </c>
@@ -14024,21 +14314,21 @@
       <c r="T169" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="AB169" s="21">
+      <c r="AA169" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A170" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="AB170" s="21" t="str">
+      <c r="AA170" s="21" t="str">
         <f t="shared" si="3"/>
         <v>val loss가 20에포크까진 급격히 감소하고, 그 이후로 꾸준히 증가</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A171" s="21" t="s">
         <v>617</v>
       </c>
@@ -14057,12 +14347,12 @@
       <c r="T171" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="AB171" s="21" t="str">
+      <c r="AA171" s="21" t="str">
         <f>A171</f>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.003, eta_min 1e-5, )</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A172" s="21" t="s">
         <v>619</v>
       </c>
@@ -14082,7 +14372,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A173" s="21" t="s">
         <v>621</v>
       </c>
@@ -14101,12 +14391,12 @@
       <c r="T173" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="AB173" s="21" t="str">
+      <c r="AA173" s="21" t="str">
         <f>A173</f>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.002에서 시작</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A174" s="21" t="s">
         <v>620</v>
       </c>
@@ -14125,12 +14415,12 @@
       <c r="T174" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="AB174" s="21" t="str">
+      <c r="AA174" s="21" t="str">
         <f>A174</f>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.001에서 시작</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A175" s="21" t="s">
         <v>622</v>
       </c>
@@ -14149,12 +14439,12 @@
       <c r="T175" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="AB175" s="21" t="str">
+      <c r="AA175" s="21" t="str">
         <f>A175</f>
         <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min 1e-4, 시작 시 1e-5 부터 5에퐄 웜업하고 lr 0.003에서 시작</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A176" s="65" t="s">
         <v>630</v>
       </c>
@@ -14185,7 +14475,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K177" s="21">
         <v>91.72</v>
       </c>
@@ -14201,12 +14491,12 @@
       <c r="T177" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="AB177" s="21">
+      <c r="AA177" s="21">
         <f>A177</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K178" s="21">
         <v>91.56</v>
       </c>
@@ -14222,12 +14512,12 @@
       <c r="T178" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="AB178" s="21">
+      <c r="AA178" s="21">
         <f>A178</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K179" s="21">
         <v>91.56</v>
       </c>
@@ -14243,12 +14533,12 @@
       <c r="T179" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="AB179" s="21">
+      <c r="AA179" s="21">
         <f>A179</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K180" s="21">
         <v>91.8</v>
       </c>
@@ -14264,12 +14554,12 @@
       <c r="T180" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="AB180" s="21">
+      <c r="AA180" s="21">
         <f>A180</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A181" s="65" t="s">
         <v>631</v>
       </c>
@@ -14288,12 +14578,12 @@
       <c r="T181" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="AB181" s="21" t="str">
+      <c r="AA181" s="21" t="str">
         <f>A181</f>
         <v>Ours (weight_decay 0.0001, ps112, drop0.0, res_attn, lr 0.001, eta_min 1e-4)</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K182" s="21">
         <v>92.34</v>
       </c>
@@ -14309,12 +14599,12 @@
       <c r="T182" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="AB182" s="21">
+      <c r="AA182" s="21">
         <f>A182</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K183" s="21">
         <v>92.27</v>
       </c>
@@ -14330,12 +14620,12 @@
       <c r="T183" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="AB183" s="21">
+      <c r="AA183" s="21">
         <f>A183</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K184" s="21">
         <v>92.11</v>
       </c>
@@ -14351,12 +14641,12 @@
       <c r="T184" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="AB184" s="21">
+      <c r="AA184" s="21">
         <f>A184</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A185" s="65" t="s">
         <v>636</v>
       </c>
@@ -14375,12 +14665,12 @@
       <c r="T185" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="AB185" s="21" t="str">
+      <c r="AA185" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.0001, ps112, drop0.15, res_attn, lr 0.001, eta_min 1e-4)</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K186" s="21">
         <v>90.55</v>
       </c>
@@ -14396,12 +14686,12 @@
       <c r="T186" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="AB186" s="21">
+      <c r="AA186" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K187" s="21">
         <v>90.7</v>
       </c>
@@ -14417,12 +14707,12 @@
       <c r="T187" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="AB187" s="21">
+      <c r="AA187" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K188" s="21">
         <v>90.47</v>
       </c>
@@ -14438,12 +14728,12 @@
       <c r="T188" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="AB188" s="21">
+      <c r="AA188" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A189" s="32" t="s">
         <v>519</v>
       </c>
@@ -14494,12 +14784,12 @@
       <c r="T189" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="AB189" s="62" t="str">
+      <c r="AA189" s="62" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40)</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A190" s="20"/>
       <c r="K190" s="20">
         <v>99.38</v>
@@ -14518,12 +14808,12 @@
       <c r="T190" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="AB190" s="21">
+      <c r="AA190" s="21">
         <f>A190</f>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K191" s="20">
         <v>99.06</v>
       </c>
@@ -14541,12 +14831,12 @@
       <c r="T191" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="AB191" s="21">
+      <c r="AA191" s="21">
         <f>A191</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K192" s="20">
         <v>99.38</v>
       </c>
@@ -14564,12 +14854,12 @@
       <c r="T192" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="AB192" s="21">
+      <c r="AA192" s="21">
         <f>A192</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.4">
       <c r="K193" s="20">
         <v>99.45</v>
       </c>
@@ -14587,1418 +14877,1626 @@
       <c r="T193" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="AB193" s="21">
+      <c r="AA193" s="21">
         <f>A193</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A194" s="32" t="s">
         <v>657</v>
       </c>
+      <c r="K194" s="21">
+        <v>99.22</v>
+      </c>
+      <c r="L194" s="21">
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="M194" s="57">
+        <v>87.02</v>
+      </c>
+      <c r="P194" s="55">
+        <v>0.87570000000000003</v>
+      </c>
       <c r="T194" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="AB194" s="21" t="str">
+      <c r="AA194" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 24, emb_dim40)</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB195" s="21">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA195" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A196" s="32" t="s">
         <v>584</v>
       </c>
+      <c r="K196" s="21">
+        <v>99.61</v>
+      </c>
+      <c r="L196" s="21">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="M196" s="57">
+        <v>85.84</v>
+      </c>
+      <c r="P196" s="55">
+        <v>0.85370000000000001</v>
+      </c>
       <c r="T196" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="AB196" s="21" t="str">
+      <c r="AA196" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim24)</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB197" s="21">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA197" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A198" s="32" t="s">
         <v>660</v>
       </c>
+      <c r="K198" s="21">
+        <v>98.98</v>
+      </c>
+      <c r="L198" s="21">
+        <v>0.8448</v>
+      </c>
+      <c r="M198" s="57">
+        <v>86.43</v>
+      </c>
+      <c r="P198" s="55">
+        <v>0.86550000000000005</v>
+      </c>
       <c r="T198" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="AB198" s="21" t="str">
+      <c r="AA198" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 24, emb_dim24)</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB199" s="21">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA199" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB200" s="21">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A200" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA200" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB201" s="21">
+        <v>feat3를 할 거면, 24말고 둘 다 40이 맞구나.</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA201" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB202" s="21">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A202" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="K202" s="21">
+        <v>99.45</v>
+      </c>
+      <c r="L202" s="21">
+        <v>0.53439999999999999</v>
+      </c>
+      <c r="M202" s="57">
+        <v>86.14</v>
+      </c>
+      <c r="P202" s="55">
+        <v>0.874</v>
+      </c>
+      <c r="T202" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA202" s="21" t="str">
+        <f>A202</f>
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, label_smooth 0.2)</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="K203" s="21">
+        <v>99.3</v>
+      </c>
+      <c r="L203" s="21">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="M203" s="57">
+        <v>86.14</v>
+      </c>
+      <c r="P203" s="55">
+        <v>0.874</v>
+      </c>
+      <c r="T203" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="AA203" s="21">
+        <f>A203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A204" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="K204" s="20">
+        <v>99.38</v>
+      </c>
+      <c r="L204" s="20">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="M204" s="66">
+        <v>86.73</v>
+      </c>
+      <c r="N204" s="67"/>
+      <c r="O204" s="67"/>
+      <c r="P204" s="67">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="Q204" s="67"/>
+      <c r="R204" s="67"/>
+      <c r="S204" s="67"/>
+      <c r="T204" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA204" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB203" s="21">
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride112, eff_feat3, featured_patch_dim 40, emb_dim40, label_smooth 0.1)</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="K205" s="20">
+        <v>99.14</v>
+      </c>
+      <c r="L205" s="20">
+        <v>0.4627</v>
+      </c>
+      <c r="M205" s="66">
+        <v>90.27</v>
+      </c>
+      <c r="N205" s="67"/>
+      <c r="O205" s="67"/>
+      <c r="P205" s="67">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="Q205" s="67"/>
+      <c r="R205" s="67"/>
+      <c r="S205" s="67"/>
+      <c r="T205" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA205" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB204" s="21">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A206" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="K206" s="21">
+        <v>99.53</v>
+      </c>
+      <c r="L206" s="21">
+        <v>0.5292</v>
+      </c>
+      <c r="M206" s="57">
+        <v>86.73</v>
+      </c>
+      <c r="P206" s="55">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="T206" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA206" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB205" s="21">
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim40, label_smooth 0.1)</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="K207" s="21">
+        <v>99.38</v>
+      </c>
+      <c r="L207" s="21">
+        <v>0.5373</v>
+      </c>
+      <c r="M207" s="57">
+        <v>85.55</v>
+      </c>
+      <c r="P207" s="55">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="T207" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA207" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB206" s="21">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A208" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="K208" s="21">
+        <v>99.14</v>
+      </c>
+      <c r="L208" s="21">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="M208" s="57">
+        <v>85.84</v>
+      </c>
+      <c r="P208" s="55">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="T208" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA208" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB207" s="21">
+        <v>Ours (weight_decay 0.001, ps56, drop0.1, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim40, label_smooth 0.1)</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A209" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="AA209" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB208" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB209" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB210" s="21">
-        <f t="shared" ref="AB210:AB273" si="4">A210</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB211" s="21">
+        <v>(ps, stride) (112,112), (112,56)에 비해서 (56, 56)은 많이 별로다.</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A210" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA210" s="21" t="str">
+        <f>A210</f>
+        <v>(112,112) 보다 (112,56)이 어텐션맵이 더 잘 나왔다. 아래는 순서대로 (112,112), (112, 56)의 어텐션맵</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A211" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA211" s="21" t="str">
+        <f>A211</f>
+        <v>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_124940/attention_map_20251119_124940/12-08410-B.mp4_20190321182740/12-08410-B.mp4_20190321182740_compile.png</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A212" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA212" s="21" t="str">
+        <f>A212</f>
+        <v>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_134838/attention_map_20251119_134838/12-08410-B.mp4_20190321182740/12-08410-B.mp4_20190321182740_compile.png</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA213" s="21">
+        <f>A213</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A214" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="K214" s="21">
+        <v>99.38</v>
+      </c>
+      <c r="L214" s="21">
+        <v>0.66190000000000004</v>
+      </c>
+      <c r="M214" s="57">
+        <v>85.25</v>
+      </c>
+      <c r="P214" s="55">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="T214" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA214" s="21" t="str">
+        <f>A214</f>
+        <v>Ours (weight_decay 0.001, ps112, drop0.3, res_attn, stride56, eff_feat3, featured_patch_dim 40, emb_dim40, label_smooth 0.1)</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A215" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="K215" s="21">
+        <v>99.22</v>
+      </c>
+      <c r="L215" s="21">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="M215" s="57">
+        <v>84.66</v>
+      </c>
+      <c r="P215" s="55">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="T215" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA215" s="21" t="str">
+        <f>A215</f>
+        <v>dropout 높이니까 오히려 val loss가 증가한다…</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA217" s="21">
+        <f>A217</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA218" s="21">
+        <f>A218</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA219" s="21">
+        <f>A219</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA220" s="21">
+        <f>A220</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA221" s="21">
+        <f>A221</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA222" s="21">
+        <f>A222</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA223" s="21">
+        <f>A223</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA224" s="21">
+        <f>A224</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA225" s="21">
+        <f>A225</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA226" s="21">
+        <f>A226</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA227" s="21">
+        <f>A227</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA228" s="21">
+        <f>A228</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA229" s="21">
+        <f>A229</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA230" s="21">
+        <f>A230</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA231" s="21">
+        <f>A231</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA232" s="21">
+        <f>A232</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA233" s="21">
+        <f>A233</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA234" s="21">
+        <f>A234</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA235" s="21">
+        <f>A235</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA236" s="21">
+        <f>A236</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA237" s="21">
+        <f>A237</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA238" s="21">
+        <f>A238</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA239" s="21">
+        <f>A239</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA240" s="21">
+        <f>A240</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA241" s="21">
+        <f>A241</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA242" s="21">
+        <f>A242</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA243" s="21">
+        <f>A243</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA244" s="21">
+        <f>A244</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA245" s="21">
+        <f>A245</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA246" s="21">
+        <f>A246</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA247" s="21">
+        <f>A247</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA248" s="21">
+        <f>A248</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA249" s="21">
+        <f>A249</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA250" s="21">
+        <f>A250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA251" s="21">
+        <f>A251</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA252" s="21">
+        <f>A252</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA253" s="21">
+        <f>A253</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA254" s="21">
+        <f>A254</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA255" s="21">
+        <f>A255</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA256" s="21">
+        <f>A256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA257" s="21">
+        <f>A257</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA258" s="21">
+        <f>A258</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA259" s="21">
+        <f>A259</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA260" s="21">
+        <f>A260</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA261" s="21">
+        <f>A261</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA262" s="21">
+        <f>A262</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA263" s="21">
+        <f>A263</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA264" s="21">
+        <f>A264</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA265" s="21">
+        <f>A265</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA266" s="21">
+        <f>A266</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA267" s="21">
+        <f>A267</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA268" s="21">
+        <f>A268</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA269" s="21">
+        <f>A269</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA270" s="21">
+        <f>A270</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA271" s="21">
+        <f>A271</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA272" s="21">
+        <f>A272</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA273" s="21">
+        <f>A273</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA274" s="21">
+        <f t="shared" ref="AA274:AA337" si="4">A274</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA275" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB212" s="21">
+    <row r="276" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA276" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB213" s="21">
+    <row r="277" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA277" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB214" s="21">
+    <row r="278" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA278" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB215" s="21">
+    <row r="279" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA279" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB216" s="21">
+    <row r="280" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA280" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB217" s="21">
+    <row r="281" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA281" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB218" s="21">
+    <row r="282" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA282" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB219" s="21">
+    <row r="283" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA283" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB220" s="21">
+    <row r="284" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA284" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB221" s="21">
+    <row r="285" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA285" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB222" s="21">
+    <row r="286" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA286" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB223" s="21">
+    <row r="287" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA287" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB224" s="21">
+    <row r="288" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA288" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB225" s="21">
+    <row r="289" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA289" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB226" s="21">
+    <row r="290" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA290" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB227" s="21">
+    <row r="291" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA291" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB228" s="21">
+    <row r="292" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA292" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB229" s="21">
+    <row r="293" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA293" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB230" s="21">
+    <row r="294" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA294" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB231" s="21">
+    <row r="295" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA295" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB232" s="21">
+    <row r="296" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA296" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB233" s="21">
+    <row r="297" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA297" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB234" s="21">
+    <row r="298" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA298" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB235" s="21">
+    <row r="299" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA299" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB236" s="21">
+    <row r="300" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA300" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB237" s="21">
+    <row r="301" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA301" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB238" s="21">
+    <row r="302" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA302" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB239" s="21">
+    <row r="303" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA303" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB240" s="21">
+    <row r="304" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA304" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB241" s="21">
+    <row r="305" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA305" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB242" s="21">
+    <row r="306" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA306" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB243" s="21">
+    <row r="307" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA307" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB244" s="21">
+    <row r="308" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA308" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB245" s="21">
+    <row r="309" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA309" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB246" s="21">
+    <row r="310" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA310" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB247" s="21">
+    <row r="311" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA311" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB248" s="21">
+    <row r="312" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA312" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB249" s="21">
+    <row r="313" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA313" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB250" s="21">
+    <row r="314" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA314" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB251" s="21">
+    <row r="315" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA315" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB252" s="21">
+    <row r="316" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA316" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB253" s="21">
+    <row r="317" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA317" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB254" s="21">
+    <row r="318" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA318" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB255" s="21">
+    <row r="319" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA319" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB256" s="21">
+    <row r="320" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA320" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB257" s="21">
+    <row r="321" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA321" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB258" s="21">
+    <row r="322" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA322" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB259" s="21">
+    <row r="323" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA323" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB260" s="21">
+    <row r="324" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA324" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB261" s="21">
+    <row r="325" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA325" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB262" s="21">
+    <row r="326" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA326" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB263" s="21">
+    <row r="327" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA327" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB264" s="21">
+    <row r="328" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA328" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB265" s="21">
+    <row r="329" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA329" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB266" s="21">
+    <row r="330" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA330" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB267" s="21">
+    <row r="331" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA331" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB268" s="21">
+    <row r="332" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA332" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB269" s="21">
+    <row r="333" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA333" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB270" s="21">
+    <row r="334" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA334" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB271" s="21">
+    <row r="335" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA335" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB272" s="21">
+    <row r="336" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA336" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB273" s="21">
+    <row r="337" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA337" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB274" s="21">
-        <f t="shared" ref="AB274:AB337" si="5">A274</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB275" s="21">
+    <row r="338" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA338" s="21">
+        <f t="shared" ref="AA338:AA401" si="5">A338</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA339" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB276" s="21">
+    <row r="340" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA340" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB277" s="21">
+    <row r="341" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA341" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB278" s="21">
+    <row r="342" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA342" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB279" s="21">
+    <row r="343" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA343" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB280" s="21">
+    <row r="344" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA344" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB281" s="21">
+    <row r="345" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA345" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB282" s="21">
+    <row r="346" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA346" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB283" s="21">
+    <row r="347" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA347" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB284" s="21">
+    <row r="348" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA348" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB285" s="21">
+    <row r="349" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA349" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB286" s="21">
+    <row r="350" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA350" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB287" s="21">
+    <row r="351" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA351" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB288" s="21">
+    <row r="352" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA352" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB289" s="21">
+    <row r="353" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA353" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB290" s="21">
+    <row r="354" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA354" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB291" s="21">
+    <row r="355" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA355" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB292" s="21">
+    <row r="356" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA356" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB293" s="21">
+    <row r="357" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA357" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB294" s="21">
+    <row r="358" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA358" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB295" s="21">
+    <row r="359" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA359" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB296" s="21">
+    <row r="360" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA360" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB297" s="21">
+    <row r="361" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA361" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB298" s="21">
+    <row r="362" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA362" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB299" s="21">
+    <row r="363" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA363" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB300" s="21">
+    <row r="364" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA364" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB301" s="21">
+    <row r="365" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA365" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB302" s="21">
+    <row r="366" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA366" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB303" s="21">
+    <row r="367" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA367" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB304" s="21">
+    <row r="368" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA368" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB305" s="21">
+    <row r="369" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA369" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB306" s="21">
+    <row r="370" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA370" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB307" s="21">
+    <row r="371" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA371" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB308" s="21">
+    <row r="372" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA372" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB309" s="21">
+    <row r="373" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA373" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB310" s="21">
+    <row r="374" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA374" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB311" s="21">
+    <row r="375" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA375" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB312" s="21">
+    <row r="376" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA376" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB313" s="21">
+    <row r="377" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA377" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB314" s="21">
+    <row r="378" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA378" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB315" s="21">
+    <row r="379" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA379" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB316" s="21">
+    <row r="380" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA380" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB317" s="21">
+    <row r="381" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA381" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB318" s="21">
+    <row r="382" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA382" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB319" s="21">
+    <row r="383" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA383" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB320" s="21">
+    <row r="384" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA384" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB321" s="21">
+    <row r="385" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA385" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB322" s="21">
+    <row r="386" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA386" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB323" s="21">
+    <row r="387" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA387" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB324" s="21">
+    <row r="388" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA388" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB325" s="21">
+    <row r="389" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA389" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB326" s="21">
+    <row r="390" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA390" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB327" s="21">
+    <row r="391" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA391" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB328" s="21">
+    <row r="392" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA392" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB329" s="21">
+    <row r="393" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA393" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB330" s="21">
+    <row r="394" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA394" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB331" s="21">
+    <row r="395" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA395" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB332" s="21">
+    <row r="396" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA396" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB333" s="21">
+    <row r="397" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA397" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB334" s="21">
+    <row r="398" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA398" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB335" s="21">
+    <row r="399" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA399" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB336" s="21">
+    <row r="400" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA400" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB337" s="21">
+    <row r="401" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA401" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB338" s="21">
-        <f t="shared" ref="AB338:AB401" si="6">A338</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB339" s="21">
+    <row r="402" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA402" s="21">
+        <f t="shared" ref="AA402:AA425" si="6">A402</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA403" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB340" s="21">
+    <row r="404" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA404" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB341" s="21">
+    <row r="405" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA405" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB342" s="21">
+    <row r="406" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA406" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB343" s="21">
+    <row r="407" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA407" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB344" s="21">
+    <row r="408" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA408" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB345" s="21">
+    <row r="409" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA409" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB346" s="21">
+    <row r="410" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA410" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB347" s="21">
+    <row r="411" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA411" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB348" s="21">
+    <row r="412" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA412" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB349" s="21">
+    <row r="413" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA413" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB350" s="21">
+    <row r="414" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA414" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB351" s="21">
+    <row r="415" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA415" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB352" s="21">
+    <row r="416" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA416" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB353" s="21">
+    <row r="417" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA417" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB354" s="21">
+    <row r="418" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA418" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB355" s="21">
+    <row r="419" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA419" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB356" s="21">
+    <row r="420" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA420" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB357" s="21">
+    <row r="421" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA421" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB358" s="21">
+    <row r="422" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA422" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB359" s="21">
+    <row r="423" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA423" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB360" s="21">
+    <row r="424" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA424" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB361" s="21">
+    <row r="425" spans="27:27" x14ac:dyDescent="0.4">
+      <c r="AA425" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB362" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB363" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB364" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB365" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB366" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB367" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB368" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB369" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB370" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB371" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB372" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB373" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB374" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB375" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB376" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB377" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB378" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB379" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB380" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB381" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB382" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB383" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB384" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB385" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB386" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB387" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB388" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB389" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB390" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB391" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB392" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB393" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB394" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB395" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB396" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB397" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB398" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB399" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB400" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB401" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB402" s="21">
-        <f t="shared" ref="AB402:AB425" si="7">A402</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB403" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB404" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB405" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB406" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB407" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB408" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB409" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB410" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB411" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB412" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB413" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB414" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB415" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB416" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB417" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB418" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB419" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB420" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB421" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB422" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB423" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB424" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB425" s="21">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16112,7 +16610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16731,41 +17229,18 @@
       <c r="J18" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A23" s="65" t="s">
-        <v>519</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="21">
-        <v>256</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="21">
-        <v>90</v>
-      </c>
-      <c r="G23" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>365</v>
-      </c>
+      <c r="A23" s="65"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
-        <v>521</v>
-      </c>
+      <c r="A24" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="21"/>
